--- a/GradeDistributionsDB/Spring2016/Output/Spring2016 GE.xlsx
+++ b/GradeDistributionsDB/Spring2016/Output/Spring2016 GE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="570">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ATMO-201</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>0.00%</t>
   </si>
   <si>
+    <t>3.95%</t>
+  </si>
+  <si>
     <t>BROOKS S</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>1.75%</t>
   </si>
   <si>
+    <t>1.72%</t>
+  </si>
+  <si>
     <t>LOGAN T</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t>4.12%</t>
   </si>
   <si>
+    <t>0.51%</t>
+  </si>
+  <si>
     <t>SCHUMACHER C</t>
   </si>
   <si>
@@ -106,6 +118,9 @@
     <t>4.40%</t>
   </si>
   <si>
+    <t>6.19%</t>
+  </si>
+  <si>
     <t>CONLEE D</t>
   </si>
   <si>
@@ -121,6 +136,9 @@
     <t>1.09%</t>
   </si>
   <si>
+    <t>4.17%</t>
+  </si>
+  <si>
     <t>ATMO-202</t>
   </si>
   <si>
@@ -139,6 +157,9 @@
     <t>3.55%</t>
   </si>
   <si>
+    <t>4.73%</t>
+  </si>
+  <si>
     <t>ATMO-203</t>
   </si>
   <si>
@@ -163,6 +184,9 @@
     <t>23.81%</t>
   </si>
   <si>
+    <t>8.70%</t>
+  </si>
+  <si>
     <t>ATMO-352</t>
   </si>
   <si>
@@ -220,6 +244,9 @@
     <t>9.09%</t>
   </si>
   <si>
+    <t>8.33%</t>
+  </si>
+  <si>
     <t>ATMO-456</t>
   </si>
   <si>
@@ -334,6 +361,9 @@
     <t>0.49%</t>
   </si>
   <si>
+    <t>0.96%</t>
+  </si>
+  <si>
     <t>GEOG-202</t>
   </si>
   <si>
@@ -355,6 +385,9 @@
     <t>2.97%</t>
   </si>
   <si>
+    <t>3.35%</t>
+  </si>
+  <si>
     <t>LEE H</t>
   </si>
   <si>
@@ -379,6 +412,9 @@
     <t>1.30%</t>
   </si>
   <si>
+    <t>2.54%</t>
+  </si>
+  <si>
     <t>HUGILL P</t>
   </si>
   <si>
@@ -391,6 +427,9 @@
     <t>3.13%</t>
   </si>
   <si>
+    <t>3.03%</t>
+  </si>
+  <si>
     <t>GEOG-203</t>
   </si>
   <si>
@@ -412,6 +451,9 @@
     <t>2.52%</t>
   </si>
   <si>
+    <t>7.02%</t>
+  </si>
+  <si>
     <t>LOISEL J</t>
   </si>
   <si>
@@ -427,6 +469,9 @@
     <t>1.39%</t>
   </si>
   <si>
+    <t>3.57%</t>
+  </si>
+  <si>
     <t>LAFON C</t>
   </si>
   <si>
@@ -445,6 +490,9 @@
     <t>3.37%</t>
   </si>
   <si>
+    <t>5.82%</t>
+  </si>
+  <si>
     <t>GEOG-205</t>
   </si>
   <si>
@@ -463,6 +511,9 @@
     <t>0.81%</t>
   </si>
   <si>
+    <t>4.62%</t>
+  </si>
+  <si>
     <t>HOUSER C</t>
   </si>
   <si>
@@ -487,6 +538,9 @@
     <t>4.16%</t>
   </si>
   <si>
+    <t>2.53%</t>
+  </si>
+  <si>
     <t>GEOG-301</t>
   </si>
   <si>
@@ -508,6 +562,9 @@
     <t>2.04%</t>
   </si>
   <si>
+    <t>3.92%</t>
+  </si>
+  <si>
     <t>GEOG-304</t>
   </si>
   <si>
@@ -526,6 +583,9 @@
     <t>4.00%</t>
   </si>
   <si>
+    <t>1.96%</t>
+  </si>
+  <si>
     <t>GEOG-305</t>
   </si>
   <si>
@@ -541,6 +601,9 @@
     <t>2.25%</t>
   </si>
   <si>
+    <t>6.32%</t>
+  </si>
+  <si>
     <t>GEOG-306</t>
   </si>
   <si>
@@ -553,6 +616,9 @@
     <t>10.34%</t>
   </si>
   <si>
+    <t>9.38%</t>
+  </si>
+  <si>
     <t>GEOG-312</t>
   </si>
   <si>
@@ -568,7 +634,7 @@
     <t>1.32%</t>
   </si>
   <si>
-    <t>3.95%</t>
+    <t>7.32%</t>
   </si>
   <si>
     <t>GEOG-325</t>
@@ -607,6 +673,9 @@
     <t>8.89%</t>
   </si>
   <si>
+    <t>10.00%</t>
+  </si>
+  <si>
     <t>GEOG-335</t>
   </si>
   <si>
@@ -628,6 +697,9 @@
     <t>2.70%</t>
   </si>
   <si>
+    <t>5.13%</t>
+  </si>
+  <si>
     <t>GEOG-352</t>
   </si>
   <si>
@@ -640,6 +712,9 @@
     <t>27.78%</t>
   </si>
   <si>
+    <t>1.82%</t>
+  </si>
+  <si>
     <t>GEOG-360</t>
   </si>
   <si>
@@ -715,9 +790,6 @@
     <t>37.50%</t>
   </si>
   <si>
-    <t>8.33%</t>
-  </si>
-  <si>
     <t>GEOG-406</t>
   </si>
   <si>
@@ -748,9 +820,6 @@
     <t>17.86%</t>
   </si>
   <si>
-    <t>3.57%</t>
-  </si>
-  <si>
     <t>GEOG-475</t>
   </si>
   <si>
@@ -766,6 +835,9 @@
     <t>52.73%</t>
   </si>
   <si>
+    <t>5.17%</t>
+  </si>
+  <si>
     <t>GEOG-476</t>
   </si>
   <si>
@@ -778,9 +850,6 @@
     <t>21.74%</t>
   </si>
   <si>
-    <t>8.70%</t>
-  </si>
-  <si>
     <t>GEOG-485</t>
   </si>
   <si>
@@ -814,9 +883,6 @@
     <t>35.00%</t>
   </si>
   <si>
-    <t>10.00%</t>
-  </si>
-  <si>
     <t>GEOG-624</t>
   </si>
   <si>
@@ -856,6 +922,9 @@
     <t>4.84%</t>
   </si>
   <si>
+    <t>5.34%</t>
+  </si>
+  <si>
     <t>SCHROEDER C</t>
   </si>
   <si>
@@ -889,6 +958,9 @@
     <t>4.23%</t>
   </si>
   <si>
+    <t>2.74%</t>
+  </si>
+  <si>
     <t>GEOL-106</t>
   </si>
   <si>
@@ -907,6 +979,9 @@
     <t>0.72%</t>
   </si>
   <si>
+    <t>2.80%</t>
+  </si>
+  <si>
     <t>GEOL-203</t>
   </si>
   <si>
@@ -919,6 +994,9 @@
     <t>13.79%</t>
   </si>
   <si>
+    <t>6.45%</t>
+  </si>
+  <si>
     <t>GEOL-302</t>
   </si>
   <si>
@@ -1003,6 +1081,9 @@
     <t>8.00%</t>
   </si>
   <si>
+    <t>3.85%</t>
+  </si>
+  <si>
     <t>EWING R</t>
   </si>
   <si>
@@ -1012,6 +1093,9 @@
     <t>3.33%</t>
   </si>
   <si>
+    <t>1.64%</t>
+  </si>
+  <si>
     <t>GEOL-309</t>
   </si>
   <si>
@@ -1027,7 +1111,7 @@
     <t>12.66%</t>
   </si>
   <si>
-    <t>2.53%</t>
+    <t>2.47%</t>
   </si>
   <si>
     <t>GEOL-311</t>
@@ -1129,12 +1213,18 @@
     <t>6.40%</t>
   </si>
   <si>
+    <t>0.79%</t>
+  </si>
+  <si>
     <t>GEOL-410</t>
   </si>
   <si>
     <t>KNAPPETT P</t>
   </si>
   <si>
+    <t>58.33%</t>
+  </si>
+  <si>
     <t>GEOL-420</t>
   </si>
   <si>
@@ -1171,6 +1261,9 @@
     <t>3.23%</t>
   </si>
   <si>
+    <t>2.11%</t>
+  </si>
+  <si>
     <t>GEOL-491</t>
   </si>
   <si>
@@ -1225,6 +1318,9 @@
     <t>2.50%</t>
   </si>
   <si>
+    <t>2.44%</t>
+  </si>
+  <si>
     <t>GEOP-435</t>
   </si>
   <si>
@@ -1336,9 +1432,6 @@
     <t>7.69%</t>
   </si>
   <si>
-    <t>3.85%</t>
-  </si>
-  <si>
     <t>GEOS-430</t>
   </si>
   <si>
@@ -1366,6 +1459,9 @@
     <t>8.62%</t>
   </si>
   <si>
+    <t>1.69%</t>
+  </si>
+  <si>
     <t>GEOS-470</t>
   </si>
   <si>
@@ -1408,6 +1504,9 @@
     <t>2.20%</t>
   </si>
   <si>
+    <t>3.19%</t>
+  </si>
+  <si>
     <t>HENRICHS D</t>
   </si>
   <si>
@@ -1444,6 +1543,9 @@
     <t>4.55%</t>
   </si>
   <si>
+    <t>4.81%</t>
+  </si>
+  <si>
     <t>STOESSEL A</t>
   </si>
   <si>
@@ -1483,13 +1585,16 @@
     <t>3.41%</t>
   </si>
   <si>
+    <t>2.22%</t>
+  </si>
+  <si>
     <t>WIEDERWOHL C</t>
   </si>
   <si>
     <t>47.27%</t>
   </si>
   <si>
-    <t>1.82%</t>
+    <t>6.78%</t>
   </si>
   <si>
     <t>GARDNER W</t>
@@ -1516,6 +1621,9 @@
     <t>13.73%</t>
   </si>
   <si>
+    <t>13.56%</t>
+  </si>
+  <si>
     <t>OCNG-252</t>
   </si>
   <si>
@@ -1531,6 +1639,9 @@
     <t>0.92%</t>
   </si>
   <si>
+    <t>2.03%</t>
+  </si>
+  <si>
     <t>OCNG-401</t>
   </si>
   <si>
@@ -1553,9 +1664,6 @@
   </si>
   <si>
     <t>THOMAS D</t>
-  </si>
-  <si>
-    <t>58.33%</t>
   </si>
   <si>
     <t>22.92%</t>
@@ -1653,12 +1761,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1952,15 +2059,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H383"/>
+  <dimension ref="A1:I383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1985,4099 +2092,4561 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>2.9585</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>3.228</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
         <v>3.66</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
         <v>3.143</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
         <v>3.25</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>2.8457</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
         <v>3.65</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C16" t="n">
         <v>3.238</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C19" t="n">
         <v>2.893</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C22" t="n">
         <v>3.136</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C25" t="n">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C28" t="n">
         <v>3.364</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C31" t="n">
         <v>3.368</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C34" t="n">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C40" t="n">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C43" t="n">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C46" t="n">
         <v>3.667</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C49" t="n">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E49" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C52" t="n">
         <v>3.125</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C55" t="n">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C58" t="n">
         <v>3.429</v>
       </c>
       <c r="D58" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C61" t="n">
         <v>3.217</v>
       </c>
       <c r="D61" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F61" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G61" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C62" t="n">
         <v>3.077</v>
       </c>
       <c r="D62" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G62" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C65" t="n">
         <v>3.321</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F65" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G65" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C66" t="n">
         <v>3.526</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E66" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C67" t="n">
         <v>3.0475</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E67" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G67" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="H67" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C68" t="n">
         <v>2.625</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E68" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G68" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H68" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C71" t="n">
         <v>2.698</v>
       </c>
       <c r="D71" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F71" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G71" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="H71" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C72" t="n">
         <v>3.437</v>
       </c>
       <c r="D72" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G72" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="H72" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C73" t="n">
         <v>2.86</v>
       </c>
       <c r="D73" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G73" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="H73" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="I73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C76" t="n">
         <v>3.081</v>
       </c>
       <c r="D76" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G76" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="H76" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="I76" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C77" t="n">
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C80" t="n">
         <v>3.267</v>
       </c>
       <c r="D80" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="G80" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="H80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>173</v>
+      </c>
+      <c r="I80" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C83" t="n">
         <v>2.826</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="E83" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="F83" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G83" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="H83" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I83" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C86" t="n">
         <v>3.1</v>
       </c>
       <c r="D86" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G86" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I86" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C89" t="n">
         <v>3.168</v>
       </c>
       <c r="D89" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E89" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="F89" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G89" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H89" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C92" t="n">
         <v>2.69</v>
       </c>
       <c r="D92" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E92" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F92" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G92" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="H92" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I92" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C95" t="n">
         <v>3.237</v>
       </c>
       <c r="D95" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="G95" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="H95" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="I95" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C98" t="n">
         <v>2.927</v>
       </c>
       <c r="D98" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="G98" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C101" t="n">
         <v>2.222</v>
       </c>
       <c r="D101" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="G101" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="H101" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>218</v>
+      </c>
+      <c r="I101" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C104" t="n">
         <v>2.514</v>
       </c>
       <c r="D104" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="E104" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="F104" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="G104" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="H104" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>226</v>
+      </c>
+      <c r="I104" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="C107" t="n">
         <v>3.4015</v>
       </c>
       <c r="D107" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="F107" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="G107" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="C110" t="n">
         <v>3.028</v>
       </c>
       <c r="D110" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E110" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="F110" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I110" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C113" t="n">
         <v>3.8</v>
       </c>
       <c r="D113" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="B114" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="C114" t="n">
         <v>3.75</v>
       </c>
       <c r="D114" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E114" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="B117" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="C117" t="n">
         <v>2.732</v>
       </c>
       <c r="D117" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E117" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="F117" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G117" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="H117" t="s">
+        <v>244</v>
+      </c>
+      <c r="I117" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="B120" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C120" t="n">
         <v>3.381</v>
       </c>
       <c r="D120" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E120" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="F120" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="G120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C123" t="n">
         <v>2.889</v>
       </c>
       <c r="D123" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F123" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="G123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C126" t="n">
         <v>2.476</v>
       </c>
       <c r="D126" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="F126" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="G126" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="H126" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>254</v>
+      </c>
+      <c r="I126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="C129" t="n">
         <v>2.958</v>
       </c>
       <c r="D129" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="E129" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="F129" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H129" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C132" t="n">
         <v>3.538</v>
       </c>
       <c r="D132" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="E132" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="F132" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="G132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="C135" t="n">
         <v>3.278</v>
       </c>
       <c r="D135" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="E135" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="F135" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I135" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C138" t="n">
         <v>2.546</v>
       </c>
       <c r="D138" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="E138" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="G138" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="H138" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I138" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C141" t="n">
         <v>2.75</v>
       </c>
       <c r="D141" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="E141" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="F141" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G141" t="s">
-        <v>244</v>
+        <v>151</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I141" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="C144" t="n">
         <v>2.501</v>
       </c>
       <c r="D144" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="E144" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="G144" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I144" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="B147" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="C147" t="n">
         <v>3.348</v>
       </c>
       <c r="D147" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="E147" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H147" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="B150" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="C150" t="n">
         <v>3.75</v>
       </c>
       <c r="D150" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E150" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G150" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="C153" t="n">
         <v>3.4</v>
       </c>
       <c r="D153" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="E153" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I153" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="B156" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C156" t="n">
         <v>4</v>
       </c>
       <c r="D156" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G156" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="C157" t="n">
         <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="B158" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C158" t="n">
         <v>4</v>
       </c>
       <c r="D158" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="C161" t="n">
         <v>3.45</v>
       </c>
       <c r="D161" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E161" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="F161" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="G161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="C164" t="n">
         <v>3.667</v>
       </c>
       <c r="D164" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G164" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H164" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="B167" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="C167" t="n">
         <v>3.5</v>
       </c>
       <c r="D167" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E167" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I167" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="C170" t="n">
         <v>3.55</v>
       </c>
       <c r="D170" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="E170" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G170" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H170" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I170" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C173" t="n">
         <v>3.4</v>
       </c>
       <c r="D173" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="E173" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I173" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="C176" t="n">
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E176" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G176" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H176" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I176" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="C179" t="n">
         <v>2.7455</v>
       </c>
       <c r="D179" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="E179" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="F179" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G179" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="H179" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>301</v>
+      </c>
+      <c r="I179" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="B180" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="C180" t="n">
         <v>2.7389</v>
       </c>
       <c r="D180" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="E180" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="F180" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="G180" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="H180" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>307</v>
+      </c>
+      <c r="I180" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="B183" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C183" t="n">
         <v>2.9837</v>
       </c>
       <c r="D183" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="E183" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="F183" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="G183" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="H183" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I183" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="B186" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="C186" t="n">
         <v>2.8871</v>
       </c>
       <c r="D186" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="E186" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="F186" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="G186" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="H186" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>320</v>
+      </c>
+      <c r="I186" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="B189" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C189" t="n">
         <v>2.0347</v>
       </c>
       <c r="D189" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E189" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F189" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="G189" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="H189" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I189" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="B192" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="C192" t="n">
         <v>2.5889</v>
       </c>
       <c r="D192" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="E192" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="H192" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>332</v>
+      </c>
+      <c r="I192" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="B195" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="C195" t="n">
         <v>2.125</v>
       </c>
       <c r="D195" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="E195" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="F195" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="G195" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="H195" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>336</v>
+      </c>
+      <c r="I195" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="B198" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="C198" t="n">
         <v>2.4973</v>
       </c>
       <c r="D198" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="E198" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="F198" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="G198" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="H198" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>343</v>
+      </c>
+      <c r="I198" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="B199" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="C199" t="n">
         <v>2.5933</v>
       </c>
       <c r="D199" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="E199" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="F199" t="s">
-        <v>321</v>
+        <v>347</v>
       </c>
       <c r="G199" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="H199" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>349</v>
+      </c>
+      <c r="I199" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="B202" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="C202" t="n">
         <v>2.899</v>
       </c>
       <c r="D202" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="E202" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="F202" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="G202" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="H202" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I202" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="B203" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="C203" t="n">
         <v>2.5415</v>
       </c>
       <c r="D203" t="s">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="E203" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="F203" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="G203" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="H203" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>358</v>
+      </c>
+      <c r="I203" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="B206" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="C206" t="n">
         <v>3.0245</v>
       </c>
       <c r="D206" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="E206" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="F206" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="G206" t="s">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="H206" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I206" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="B209" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="C209" t="n">
         <v>3.952</v>
       </c>
       <c r="D209" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="E209" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="F209" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G209" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H209" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I209" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="B210" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="C210" t="n">
         <v>3.737</v>
       </c>
       <c r="D210" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="E210" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="F210" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G210" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H210" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I210" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="B211" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="C211" t="n">
         <v>3.75</v>
       </c>
       <c r="D211" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="E211" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="F211" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="G211" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H211" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I211" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="B212" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="C212" t="n">
         <v>3.6265</v>
       </c>
       <c r="D212" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E212" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="F212" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="G212" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H212" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I212" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="C215" t="n">
         <v>2.8855</v>
       </c>
       <c r="D215" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="E215" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="F215" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="G215" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="H215" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>383</v>
+      </c>
+      <c r="I215" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="B216" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="C216" t="n">
         <v>2.811</v>
       </c>
       <c r="D216" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="E216" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="F216" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="G216" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="H216" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>389</v>
+      </c>
+      <c r="I216" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="B219" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="C219" t="n">
         <v>3.938</v>
       </c>
       <c r="D219" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="E219" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="F219" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G219" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H219" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I219" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="B222" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="C222" t="n">
         <v>3.111</v>
       </c>
       <c r="D222" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="E222" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="F222" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G222" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="H222" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I222" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="C225" t="n">
         <v>2.919</v>
       </c>
       <c r="D225" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="E225" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="F225" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G225" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="H225" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I225" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="B228" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="C228" t="n">
         <v>2.6</v>
       </c>
       <c r="D228" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E228" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="F228" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="G228" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H228" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I228" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="C231" t="n">
         <v>3.6425</v>
       </c>
       <c r="D231" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="E231" t="s">
-        <v>244</v>
+        <v>151</v>
       </c>
       <c r="F231" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="G231" t="s">
-        <v>244</v>
+        <v>151</v>
       </c>
       <c r="H231" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I231" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="B234" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="C234" t="n">
         <v>3.25</v>
       </c>
       <c r="D234" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="E234" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F234" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G234" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H234" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I234" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="B237" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="C237" t="n">
         <v>2.6122</v>
       </c>
       <c r="D237" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="E237" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="F237" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="G237" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="H237" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>414</v>
+      </c>
+      <c r="I237" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="B240" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="C240" t="n">
         <v>4</v>
       </c>
       <c r="D240" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E240" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G240" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H240" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I240" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="B241" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="C241" t="n">
         <v>4</v>
       </c>
       <c r="D241" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E241" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F241" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G241" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H241" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I241" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="B242" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="C242" t="n">
         <v>4</v>
       </c>
       <c r="D242" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E242" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F242" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G242" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H242" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I242" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="B243" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="C243" t="n">
         <v>4</v>
       </c>
       <c r="D243" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E243" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F243" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G243" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H243" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I243" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="B246" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="C246" t="n">
         <v>4</v>
       </c>
       <c r="D246" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E246" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F246" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G246" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H246" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I246" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="A248" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="B249" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="C249" t="n">
         <v>3.833</v>
       </c>
       <c r="D249" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="E249" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F249" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G249" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H249" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I249" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="A251" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="B252" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="C252" t="n">
         <v>3.077</v>
       </c>
       <c r="D252" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E252" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="F252" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="G252" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H252" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I252" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="A254" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="B255" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="C255" t="n">
         <v>3.842</v>
       </c>
       <c r="D255" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="E255" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F255" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G255" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H255" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I255" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="A257" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="B258" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="C258" t="n">
         <v>3.778</v>
       </c>
       <c r="D258" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="E258" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="F258" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G258" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H258" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I258" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="B261" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="C261" t="n">
         <v>4</v>
       </c>
       <c r="D261" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E261" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F261" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G261" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H261" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I261" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="B262" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="C262" t="n">
         <v>4</v>
       </c>
       <c r="D262" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E262" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F262" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G262" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H262" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I262" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="B263" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="C263" t="n">
         <v>4</v>
       </c>
       <c r="D263" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E263" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F263" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G263" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H263" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I263" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="B266" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="C266" t="n">
         <v>3.857</v>
       </c>
       <c r="D266" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="E266" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F266" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G266" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H266" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I266" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="B269" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="C269" t="n">
         <v>2.9267</v>
       </c>
       <c r="D269" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E269" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="F269" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G269" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="H269" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>374</v>
+      </c>
+      <c r="I269" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="B272" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="C272" t="n">
         <v>3.111</v>
       </c>
       <c r="D272" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="E272" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F272" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="G272" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H272" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I272" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="B275" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="C275" t="n">
         <v>2.776</v>
       </c>
       <c r="D275" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="E275" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="F275" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G275" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="H275" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I275" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="B278" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="C278" t="n">
         <v>3.454</v>
       </c>
       <c r="D278" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E278" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="F278" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G278" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H278" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I278" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="A280" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="B281" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="C281" t="n">
         <v>4</v>
       </c>
       <c r="D281" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E281" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F281" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G281" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H281" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I281" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
       <c r="B282" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="C282" t="n">
         <v>4</v>
       </c>
       <c r="D282" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E282" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F282" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G282" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H282" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I282" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="A284" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="B285" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="C285" t="n">
         <v>4</v>
       </c>
       <c r="D285" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E285" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F285" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G285" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H285" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I285" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="A287" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="B288" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="C288" t="n">
         <v>3.714</v>
       </c>
       <c r="D288" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="E288" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F288" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G288" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H288" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I288" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="A290" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="B291" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="C291" t="n">
         <v>3.5</v>
       </c>
       <c r="D291" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E291" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F291" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G291" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H291" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I291" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="A293" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="B294" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="C294" t="n">
         <v>4</v>
       </c>
       <c r="D294" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E294" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F294" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G294" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H294" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I294" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="A296" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="B297" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="C297" t="n">
         <v>4</v>
       </c>
       <c r="D297" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E297" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F297" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G297" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H297" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I297" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="A299" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
       <c r="B300" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="C300" t="n">
         <v>3.96</v>
       </c>
       <c r="D300" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="E300" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="F300" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G300" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H300" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I300" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
       <c r="A302" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="B303" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="C303" t="n">
         <v>2.927</v>
       </c>
       <c r="D303" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="E303" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="F303" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="G303" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="H303" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I303" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
       <c r="A305" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="B306" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C306" t="n">
         <v>4</v>
       </c>
       <c r="D306" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E306" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F306" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G306" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H306" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I306" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
       <c r="B307" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="C307" t="n">
         <v>3.556</v>
       </c>
       <c r="D307" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="E307" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="F307" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G307" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H307" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I307" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
       <c r="B308" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="C308" t="n">
         <v>3.478</v>
       </c>
       <c r="D308" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="E308" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="F308" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="G308" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H308" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I308" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
       <c r="A310" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
       <c r="B311" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="C311" t="n">
         <v>3.291</v>
       </c>
       <c r="D311" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="E311" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="F311" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="G311" t="s">
-        <v>440</v>
+        <v>355</v>
       </c>
       <c r="H311" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>355</v>
+      </c>
+      <c r="I311" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
       <c r="A313" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
       <c r="B314" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="C314" t="n">
         <v>3.667</v>
       </c>
       <c r="D314" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="E314" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="F314" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="G314" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H314" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I314" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="A316" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
       <c r="B317" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="C317" t="n">
         <v>2.81</v>
       </c>
       <c r="D317" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="E317" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F317" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G317" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="H317" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I317" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
       <c r="A319" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
       <c r="B320" t="s">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="C320" t="n">
         <v>2.923</v>
       </c>
       <c r="D320" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E320" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="F320" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="G320" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="H320" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I320" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
       <c r="A322" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
       <c r="B323" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="C323" t="n">
         <v>3.3215</v>
       </c>
       <c r="D323" t="s">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="E323" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="F323" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="G323" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="H323" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I323" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="A325" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
       <c r="B326" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C326" t="n">
         <v>4</v>
       </c>
       <c r="D326" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E326" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F326" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G326" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H326" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I326" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
       <c r="A328" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C329" t="n">
         <v>3.923</v>
       </c>
       <c r="D329" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="E329" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="F329" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G329" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H329" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I329" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="A331" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="C332" t="n">
         <v>3.319</v>
       </c>
       <c r="D332" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="E332" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="F332" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G332" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="H332" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I332" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="C333" t="n">
         <v>2.964</v>
       </c>
       <c r="D333" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E333" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="F333" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="G333" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="H333" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
+        <v>500</v>
+      </c>
+      <c r="I333" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="C334" t="n">
         <v>3.353</v>
       </c>
       <c r="D334" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="E334" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="F334" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="G334" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H334" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I334" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="C335" t="n">
         <v>3.2237</v>
       </c>
       <c r="D335" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="E335" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="F335" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="G335" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
       <c r="H335" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
+        <v>174</v>
+      </c>
+      <c r="I335" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
       <c r="B336" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="C336" t="n">
         <v>3.1</v>
       </c>
       <c r="D336" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="E336" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
       <c r="F336" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G336" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="H336" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
+        <v>513</v>
+      </c>
+      <c r="I336" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
       <c r="B337" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
       <c r="C337" t="n">
         <v>3.354</v>
       </c>
       <c r="D337" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="E337" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c r="F337" t="s">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="G337" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="H337" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
+        <v>519</v>
+      </c>
+      <c r="I337" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
       <c r="B338" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
       <c r="C338" t="n">
         <v>3.239</v>
       </c>
       <c r="D338" t="s">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="E338" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="F338" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G338" t="s">
-        <v>488</v>
+        <v>522</v>
       </c>
       <c r="H338" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
+        <v>522</v>
+      </c>
+      <c r="I338" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
       <c r="B339" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="C339" t="n">
         <v>3.182</v>
       </c>
       <c r="D339" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="E339" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="F339" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G339" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="H339" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
+        <v>232</v>
+      </c>
+      <c r="I339" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
       <c r="B340" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="C340" t="n">
         <v>2.817</v>
       </c>
       <c r="D340" t="s">
-        <v>493</v>
+        <v>528</v>
       </c>
       <c r="E340" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="F340" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="G340" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="H340" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
+        <v>530</v>
+      </c>
+      <c r="I340" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
       <c r="B341" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="C341" t="n">
         <v>2.569</v>
       </c>
       <c r="D341" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="E341" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
       <c r="F341" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="G341" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="H341" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
+        <v>382</v>
+      </c>
+      <c r="I341" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
       <c r="A343" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
       <c r="B344" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="C344" t="n">
         <v>3.4727</v>
       </c>
       <c r="D344" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="E344" t="s">
-        <v>493</v>
+        <v>528</v>
       </c>
       <c r="F344" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="G344" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="H344" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
+        <v>540</v>
+      </c>
+      <c r="I344" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
       <c r="A346" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
       <c r="B347" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="C347" t="n">
         <v>2.882</v>
       </c>
       <c r="D347" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="E347" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="F347" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
       <c r="G347" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="H347" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I347" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
       <c r="A349" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
       <c r="B350" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="C350" t="n">
         <v>3.429</v>
       </c>
       <c r="D350" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E350" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F350" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G350" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H350" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I350" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
       <c r="A352" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
       <c r="B353" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="C353" t="n">
         <v>2.5135</v>
       </c>
       <c r="D353" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="E353" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F353" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G353" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="H353" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
+        <v>369</v>
+      </c>
+      <c r="I353" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
       <c r="A355" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
       <c r="B356" t="s">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="C356" t="n">
         <v>3.167</v>
       </c>
       <c r="D356" t="s">
-        <v>513</v>
+        <v>402</v>
       </c>
       <c r="E356" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="F356" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="G356" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="H356" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
+        <v>551</v>
+      </c>
+      <c r="I356" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
       <c r="A358" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
       <c r="B359" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="C359" t="n">
         <v>3.514</v>
       </c>
       <c r="D359" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="E359" t="s">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="F359" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="G359" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H359" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8">
+        <v>226</v>
+      </c>
+      <c r="I359" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
       <c r="A361" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
       <c r="B362" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="C362" t="n">
         <v>3.625</v>
       </c>
       <c r="D362" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E362" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F362" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G362" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H362" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I362" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
       <c r="A364" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
       <c r="B365" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="C365" t="n">
         <v>3.75</v>
       </c>
       <c r="D365" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E365" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F365" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G365" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H365" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I365" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
       <c r="A367" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
       <c r="B368" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="C368" t="n">
         <v>3.667</v>
       </c>
       <c r="D368" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E368" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F368" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G368" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H368" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I368" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
       <c r="A370" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
       <c r="B371" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="C371" t="n">
         <v>4</v>
       </c>
       <c r="D371" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E371" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F371" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G371" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H371" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I371" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
       <c r="A373" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
       <c r="B374" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="C374" t="n">
         <v>3.5555</v>
       </c>
       <c r="D374" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="E374" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="F374" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G374" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H374" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I374" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
       <c r="A376" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
       <c r="B377" t="s">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="C377" t="n">
         <v>3.462</v>
       </c>
       <c r="D377" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="E377" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="F377" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="G377" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H377" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I377" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
       <c r="A379" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
       <c r="B380" t="s">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="C380" t="n">
         <v>3.929</v>
       </c>
       <c r="D380" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="E380" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="F380" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G380" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H380" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I380" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
       <c r="A382" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
       <c r="B383" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="C383" t="n">
         <v>4</v>
       </c>
       <c r="D383" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E383" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F383" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G383" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H383" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I383" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Spring2016/Output/Spring2016 GE.xlsx
+++ b/GradeDistributionsDB/Spring2016/Output/Spring2016 GE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="553">
   <si>
     <t>Course</t>
   </si>
@@ -163,6 +163,21 @@
     <t>23.81%</t>
   </si>
   <si>
+    <t>ATMO-324</t>
+  </si>
+  <si>
+    <t>NIELSEN-GAMMON J</t>
+  </si>
+  <si>
+    <t>54.05%</t>
+  </si>
+  <si>
+    <t>35.14%</t>
+  </si>
+  <si>
+    <t>5.41%</t>
+  </si>
+  <si>
     <t>ATMO-352</t>
   </si>
   <si>
@@ -586,6 +601,27 @@
     <t>7.27%</t>
   </si>
   <si>
+    <t>GEOG-330</t>
+  </si>
+  <si>
+    <t>REILLY K</t>
+  </si>
+  <si>
+    <t>13.11%</t>
+  </si>
+  <si>
+    <t>47.54%</t>
+  </si>
+  <si>
+    <t>32.79%</t>
+  </si>
+  <si>
+    <t>4.92%</t>
+  </si>
+  <si>
+    <t>1.64%</t>
+  </si>
+  <si>
     <t>GEOG-331</t>
   </si>
   <si>
@@ -616,9 +652,6 @@
     <t>18.92%</t>
   </si>
   <si>
-    <t>35.14%</t>
-  </si>
-  <si>
     <t>27.03%</t>
   </si>
   <si>
@@ -1306,12 +1339,18 @@
     <t>12.20%</t>
   </si>
   <si>
+    <t>GEOS-210</t>
+  </si>
+  <si>
+    <t>30.56%</t>
+  </si>
+  <si>
+    <t>55.56%</t>
+  </si>
+  <si>
     <t>GEOS-405</t>
   </si>
   <si>
-    <t>55.56%</t>
-  </si>
-  <si>
     <t>60.87%</t>
   </si>
   <si>
@@ -1531,6 +1570,21 @@
     <t>0.92%</t>
   </si>
   <si>
+    <t>OCNG-350</t>
+  </si>
+  <si>
+    <t>YVON-LEWIS S</t>
+  </si>
+  <si>
+    <t>65.71%</t>
+  </si>
+  <si>
+    <t>22.86%</t>
+  </si>
+  <si>
+    <t>5.71%</t>
+  </si>
+  <si>
     <t>OCNG-401</t>
   </si>
   <si>
@@ -1562,6 +1616,9 @@
   </si>
   <si>
     <t>10.42%</t>
+  </si>
+  <si>
+    <t>OCNG-440</t>
   </si>
   <si>
     <t>OCNG-451</t>
@@ -1952,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H383"/>
+  <dimension ref="A1:H398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2200,7 +2257,7 @@
         <v>50</v>
       </c>
       <c r="C19" t="n">
-        <v>2.893</v>
+        <v>3.313</v>
       </c>
       <c r="D19" t="s">
         <v>51</v>
@@ -2212,38 +2269,38 @@
         <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.893</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>58</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>59</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>60</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2256,16 +2313,16 @@
         <v>62</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>3.136</v>
       </c>
       <c r="D25" t="s">
         <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
@@ -2276,24 +2333,24 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" t="n">
-        <v>3.364</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
@@ -2304,24 +2361,24 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="C31" t="n">
-        <v>3.368</v>
+        <v>3.364</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
@@ -2332,24 +2389,24 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3.368</v>
       </c>
       <c r="D34" t="s">
         <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s">
         <v>14</v>
@@ -2360,18 +2417,18 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="B37" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -2388,7 +2445,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2399,7 +2456,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
@@ -2416,18 +2473,18 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C43" t="n">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -2444,21 +2501,21 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C46" t="n">
-        <v>3.667</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -2472,27 +2529,27 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>3.667</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
@@ -2500,27 +2557,27 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="B52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C52" t="n">
-        <v>3.125</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
@@ -2528,24 +2585,24 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="B55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3.125</v>
       </c>
       <c r="D55" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
@@ -2556,24 +2613,24 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C58" t="n">
-        <v>3.429</v>
+        <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="G58" t="s">
         <v>14</v>
@@ -2584,154 +2641,154 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="B61" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C61" t="n">
+        <v>3.429</v>
+      </c>
+      <c r="D61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" t="n">
         <v>3.217</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D64" t="s">
         <v>32</v>
       </c>
-      <c r="E61" t="s">
-        <v>97</v>
-      </c>
-      <c r="F61" t="s">
-        <v>98</v>
-      </c>
-      <c r="G61" t="s">
-        <v>99</v>
-      </c>
-      <c r="H61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="B62" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3.077</v>
-      </c>
-      <c r="D62" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="E64" t="s">
         <v>102</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F64" t="s">
         <v>103</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G64" t="s">
         <v>104</v>
       </c>
-      <c r="H62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" t="s">
-        <v>106</v>
+      <c r="H64" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="D65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" t="s">
         <v>107</v>
       </c>
-      <c r="C65" t="n">
-        <v>3.321</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="F65" t="s">
         <v>108</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
         <v>109</v>
       </c>
-      <c r="F65" t="s">
+      <c r="H65" t="s">
         <v>110</v>
       </c>
-      <c r="G65" t="s">
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
         <v>111</v>
-      </c>
-      <c r="H65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="B66" t="s">
-        <v>113</v>
-      </c>
-      <c r="C66" t="n">
-        <v>3.526</v>
-      </c>
-      <c r="D66" t="s">
-        <v>114</v>
-      </c>
-      <c r="E66" t="s">
-        <v>115</v>
-      </c>
-      <c r="F66" t="s">
-        <v>71</v>
-      </c>
-      <c r="G66" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="B67" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" t="n">
-        <v>3.0475</v>
-      </c>
-      <c r="D67" t="s">
-        <v>117</v>
-      </c>
-      <c r="E67" t="s">
-        <v>117</v>
-      </c>
-      <c r="F67" t="s">
-        <v>118</v>
-      </c>
-      <c r="G67" t="s">
-        <v>119</v>
-      </c>
-      <c r="H67" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.321</v>
+      </c>
+      <c r="D68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" t="s">
+        <v>115</v>
+      </c>
+      <c r="G68" t="s">
+        <v>116</v>
+      </c>
+      <c r="H68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="B69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.526</v>
+      </c>
+      <c r="D69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" t="s">
+        <v>76</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" t="s">
         <v>121</v>
       </c>
-      <c r="C68" t="n">
-        <v>2.625</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C70" t="n">
+        <v>3.0475</v>
+      </c>
+      <c r="D70" t="s">
         <v>122</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E70" t="s">
         <v>122</v>
       </c>
-      <c r="F68" t="s">
-        <v>63</v>
-      </c>
-      <c r="G68" t="s">
+      <c r="F70" t="s">
         <v>123</v>
       </c>
-      <c r="H68" t="s">
+      <c r="G70" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
+      <c r="H70" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2740,216 +2797,216 @@
         <v>126</v>
       </c>
       <c r="C71" t="n">
-        <v>2.698</v>
+        <v>2.625</v>
       </c>
       <c r="D71" t="s">
         <v>127</v>
       </c>
       <c r="E71" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" t="s">
+        <v>68</v>
+      </c>
+      <c r="G71" t="s">
         <v>128</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
         <v>129</v>
       </c>
-      <c r="G71" t="s">
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
         <v>130</v>
       </c>
-      <c r="H71" t="s">
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="B72" t="s">
+      <c r="C74" t="n">
+        <v>2.698</v>
+      </c>
+      <c r="D74" t="s">
         <v>132</v>
       </c>
-      <c r="C72" t="n">
+      <c r="E74" t="s">
+        <v>133</v>
+      </c>
+      <c r="F74" t="s">
+        <v>134</v>
+      </c>
+      <c r="G74" t="s">
+        <v>135</v>
+      </c>
+      <c r="H74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="B75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" t="n">
         <v>3.437</v>
       </c>
-      <c r="D72" t="s">
-        <v>87</v>
-      </c>
-      <c r="E72" t="s">
-        <v>133</v>
-      </c>
-      <c r="F72" t="s">
-        <v>134</v>
-      </c>
-      <c r="G72" t="s">
-        <v>135</v>
-      </c>
-      <c r="H72" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="B73" t="s">
-        <v>137</v>
-      </c>
-      <c r="C73" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="D75" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" t="s">
         <v>138</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F75" t="s">
         <v>139</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G75" t="s">
         <v>140</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H75" t="s">
         <v>141</v>
-      </c>
-      <c r="H73" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="B76" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C76" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="D76" t="s">
+        <v>143</v>
+      </c>
+      <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
+        <v>145</v>
+      </c>
+      <c r="G76" t="s">
+        <v>146</v>
+      </c>
+      <c r="H76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" t="n">
         <v>3.081</v>
       </c>
-      <c r="D76" t="s">
-        <v>144</v>
-      </c>
-      <c r="E76" t="s">
-        <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
-      </c>
-      <c r="G76" t="s">
-        <v>147</v>
-      </c>
-      <c r="H76" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="B77" t="s">
+      <c r="D79" t="s">
         <v>149</v>
       </c>
-      <c r="C77" t="n">
-        <v>4</v>
-      </c>
-      <c r="D77" t="s">
-        <v>74</v>
-      </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="s">
+      <c r="E79" t="s">
         <v>150</v>
+      </c>
+      <c r="F79" t="s">
+        <v>151</v>
+      </c>
+      <c r="G79" t="s">
+        <v>152</v>
+      </c>
+      <c r="H79" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="B80" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C80" t="n">
-        <v>3.267</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="B83" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3.267</v>
+      </c>
+      <c r="D83" t="s">
+        <v>157</v>
+      </c>
+      <c r="E83" t="s">
         <v>158</v>
       </c>
-      <c r="C83" t="n">
-        <v>2.826</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="F83" t="s">
         <v>159</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
         <v>160</v>
       </c>
-      <c r="F83" t="s">
+      <c r="H83" t="s">
         <v>161</v>
-      </c>
-      <c r="G83" t="s">
-        <v>162</v>
-      </c>
-      <c r="H83" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="B86" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.826</v>
+      </c>
+      <c r="D86" t="s">
+        <v>164</v>
+      </c>
+      <c r="E86" t="s">
         <v>165</v>
       </c>
-      <c r="C86" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
         <v>166</v>
       </c>
-      <c r="E86" t="s">
+      <c r="G86" t="s">
         <v>167</v>
       </c>
-      <c r="F86" t="s">
+      <c r="H86" t="s">
         <v>168</v>
-      </c>
-      <c r="G86" t="s">
-        <v>169</v>
-      </c>
-      <c r="H86" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="C89" t="n">
-        <v>3.168</v>
+        <v>3.1</v>
       </c>
       <c r="D89" t="s">
         <v>171</v>
@@ -2961,10 +3018,10 @@
         <v>173</v>
       </c>
       <c r="G89" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="H89" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2974,44 +3031,44 @@
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="D92" t="s">
         <v>176</v>
       </c>
-      <c r="C92" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="D92" t="s">
-        <v>51</v>
-      </c>
       <c r="E92" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G92" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="H92" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="B95" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C95" t="n">
-        <v>3.237</v>
+        <v>2.69</v>
       </c>
       <c r="D95" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="F95" t="s">
         <v>182</v>
@@ -3020,35 +3077,35 @@
         <v>183</v>
       </c>
       <c r="H95" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="B98" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="C98" t="n">
-        <v>2.927</v>
+        <v>3.237</v>
       </c>
       <c r="D98" t="s">
+        <v>185</v>
+      </c>
+      <c r="E98" t="s">
         <v>186</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>187</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>188</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>189</v>
-      </c>
-      <c r="H98" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3058,210 +3115,210 @@
     </row>
     <row r="101" spans="1:8">
       <c r="B101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.927</v>
+      </c>
+      <c r="D101" t="s">
         <v>191</v>
       </c>
-      <c r="C101" t="n">
-        <v>2.222</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>192</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>193</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>194</v>
       </c>
-      <c r="G101" t="s">
-        <v>195</v>
-      </c>
       <c r="H101" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="B104" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.656</v>
+      </c>
+      <c r="D104" t="s">
+        <v>197</v>
+      </c>
+      <c r="E104" t="s">
         <v>198</v>
       </c>
-      <c r="C104" t="n">
-        <v>2.514</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="F104" t="s">
         <v>199</v>
       </c>
-      <c r="E104" t="s">
+      <c r="G104" t="s">
         <v>200</v>
       </c>
-      <c r="F104" t="s">
+      <c r="H104" t="s">
         <v>201</v>
-      </c>
-      <c r="G104" t="s">
-        <v>202</v>
-      </c>
-      <c r="H104" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="B107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.222</v>
+      </c>
+      <c r="D107" t="s">
+        <v>204</v>
+      </c>
+      <c r="E107" t="s">
         <v>205</v>
       </c>
-      <c r="C107" t="n">
-        <v>3.4015</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="F107" t="s">
         <v>206</v>
       </c>
-      <c r="E107" t="s">
+      <c r="G107" t="s">
         <v>207</v>
       </c>
-      <c r="F107" t="s">
-        <v>192</v>
-      </c>
-      <c r="G107" t="s">
-        <v>135</v>
-      </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="B110" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C110" t="n">
-        <v>3.028</v>
+        <v>2.514</v>
       </c>
       <c r="D110" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="E110" t="s">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c r="F110" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="G110" t="s">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="B113" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="C113" t="n">
+        <v>3.4015</v>
+      </c>
+      <c r="D113" t="s">
+        <v>217</v>
+      </c>
+      <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
+        <v>204</v>
+      </c>
+      <c r="G113" t="s">
+        <v>140</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="B116" t="s">
+        <v>220</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="D116" t="s">
+        <v>68</v>
+      </c>
+      <c r="E116" t="s">
+        <v>221</v>
+      </c>
+      <c r="F116" t="s">
+        <v>205</v>
+      </c>
+      <c r="G116" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="B119" t="s">
+        <v>101</v>
+      </c>
+      <c r="C119" t="n">
         <v>3.8</v>
       </c>
-      <c r="D113" t="s">
-        <v>212</v>
-      </c>
-      <c r="E113" t="s">
-        <v>213</v>
-      </c>
-      <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>14</v>
-      </c>
-      <c r="H113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="B114" t="s">
-        <v>165</v>
-      </c>
-      <c r="C114" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D114" t="s">
-        <v>214</v>
-      </c>
-      <c r="E114" t="s">
-        <v>63</v>
-      </c>
-      <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>14</v>
-      </c>
-      <c r="H114" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="B117" t="s">
-        <v>216</v>
-      </c>
-      <c r="C117" t="n">
-        <v>2.732</v>
-      </c>
-      <c r="D117" t="s">
-        <v>217</v>
-      </c>
-      <c r="E117" t="s">
-        <v>210</v>
-      </c>
-      <c r="F117" t="s">
-        <v>84</v>
-      </c>
-      <c r="G117" t="s">
-        <v>218</v>
-      </c>
-      <c r="H117" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" t="s">
-        <v>220</v>
+      <c r="D119" t="s">
+        <v>223</v>
+      </c>
+      <c r="E119" t="s">
+        <v>224</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="B120" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="C120" t="n">
-        <v>3.381</v>
+        <v>3.75</v>
       </c>
       <c r="D120" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="E120" t="s">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="F120" t="s">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="G120" t="s">
         <v>14</v>
@@ -3272,35 +3329,35 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="B123" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="C123" t="n">
-        <v>2.889</v>
+        <v>2.732</v>
       </c>
       <c r="D123" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="E123" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="F123" t="s">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="G123" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3308,159 +3365,159 @@
         <v>121</v>
       </c>
       <c r="C126" t="n">
-        <v>2.476</v>
+        <v>3.381</v>
       </c>
       <c r="D126" t="s">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F126" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="G126" t="s">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>229</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="B129" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C129" t="n">
-        <v>2.958</v>
+        <v>2.889</v>
       </c>
       <c r="D129" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E129" t="s">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="G129" t="s">
         <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="B132" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="C132" t="n">
-        <v>3.538</v>
+        <v>2.476</v>
       </c>
       <c r="D132" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E132" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F132" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G132" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="B135" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C135" t="n">
-        <v>3.278</v>
+        <v>2.958</v>
       </c>
       <c r="D135" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E135" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="F135" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G135" t="s">
         <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="B138" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="C138" t="n">
-        <v>2.546</v>
+        <v>3.538</v>
       </c>
       <c r="D138" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E138" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F138" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G138" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="B141" t="s">
-        <v>158</v>
+        <v>249</v>
       </c>
       <c r="C141" t="n">
-        <v>2.75</v>
+        <v>3.278</v>
       </c>
       <c r="D141" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E141" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="F141" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="G141" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
         <v>14</v>
@@ -3468,83 +3525,83 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" t="s">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="C144" t="n">
-        <v>2.501</v>
+        <v>2.546</v>
       </c>
       <c r="D144" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E144" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F144" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G144" t="s">
-        <v>189</v>
+        <v>72</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="B147" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="C147" t="n">
-        <v>3.348</v>
+        <v>2.75</v>
       </c>
       <c r="D147" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E147" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="F147" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="G147" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="H147" t="s">
-        <v>254</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="B150" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C150" t="n">
-        <v>3.75</v>
+        <v>2.501</v>
       </c>
       <c r="D150" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="E150" t="s">
-        <v>63</v>
+        <v>259</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="G150" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="H150" t="s">
         <v>14</v>
@@ -3552,151 +3609,151 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="B153" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C153" t="n">
-        <v>3.4</v>
+        <v>3.348</v>
       </c>
       <c r="D153" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E153" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="G153" t="s">
         <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="B156" t="s">
-        <v>132</v>
+        <v>267</v>
       </c>
       <c r="C156" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D156" t="s">
+        <v>225</v>
+      </c>
+      <c r="E156" t="s">
+        <v>68</v>
+      </c>
+      <c r="F156" t="s">
+        <v>14</v>
+      </c>
+      <c r="G156" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="B159" t="s">
+        <v>269</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>270</v>
+      </c>
+      <c r="E159" t="s">
+        <v>271</v>
+      </c>
+      <c r="F159" t="s">
+        <v>14</v>
+      </c>
+      <c r="G159" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="B162" t="s">
+        <v>137</v>
+      </c>
+      <c r="C162" t="n">
         <v>4</v>
       </c>
-      <c r="D156" t="s">
-        <v>74</v>
-      </c>
-      <c r="E156" t="s">
-        <v>14</v>
-      </c>
-      <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s">
-        <v>14</v>
-      </c>
-      <c r="H156" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="B157" t="s">
-        <v>205</v>
-      </c>
-      <c r="C157" t="n">
+      <c r="D162" t="s">
+        <v>79</v>
+      </c>
+      <c r="E162" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" t="s">
+        <v>14</v>
+      </c>
+      <c r="G162" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="B163" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163" t="n">
         <v>4</v>
       </c>
-      <c r="D157" t="s">
-        <v>74</v>
-      </c>
-      <c r="E157" t="s">
-        <v>14</v>
-      </c>
-      <c r="F157" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" t="s">
-        <v>14</v>
-      </c>
-      <c r="H157" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="B158" t="s">
-        <v>198</v>
-      </c>
-      <c r="C158" t="n">
-        <v>4</v>
-      </c>
-      <c r="D158" t="s">
-        <v>74</v>
-      </c>
-      <c r="E158" t="s">
-        <v>14</v>
-      </c>
-      <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s">
-        <v>14</v>
-      </c>
-      <c r="H158" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="B161" t="s">
-        <v>263</v>
-      </c>
-      <c r="C161" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="D161" t="s">
-        <v>264</v>
-      </c>
-      <c r="E161" t="s">
-        <v>265</v>
-      </c>
-      <c r="F161" t="s">
-        <v>266</v>
-      </c>
-      <c r="G161" t="s">
-        <v>14</v>
-      </c>
-      <c r="H161" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="s">
-        <v>267</v>
+      <c r="D163" t="s">
+        <v>79</v>
+      </c>
+      <c r="E163" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" t="s">
+        <v>14</v>
+      </c>
+      <c r="G163" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="B164" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="C164" t="n">
-        <v>3.667</v>
+        <v>4</v>
       </c>
       <c r="D164" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
@@ -3710,24 +3767,24 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="B167" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C167" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="D167" t="s">
-        <v>59</v>
+        <v>275</v>
       </c>
       <c r="E167" t="s">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="G167" t="s">
         <v>14</v>
@@ -3738,21 +3795,21 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="B170" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="C170" t="n">
-        <v>3.55</v>
+        <v>3.667</v>
       </c>
       <c r="D170" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="E170" t="s">
-        <v>271</v>
+        <v>36</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
@@ -3766,21 +3823,21 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="B173" t="s">
-        <v>126</v>
+        <v>269</v>
       </c>
       <c r="C173" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D173" t="s">
-        <v>259</v>
+        <v>64</v>
       </c>
       <c r="E173" t="s">
-        <v>260</v>
+        <v>64</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
@@ -3794,21 +3851,21 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="B176" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C176" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="D176" t="s">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="E176" t="s">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="F176" t="s">
         <v>14</v>
@@ -3822,215 +3879,215 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="B179" t="s">
-        <v>275</v>
+        <v>131</v>
       </c>
       <c r="C179" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>270</v>
+      </c>
+      <c r="E179" t="s">
+        <v>271</v>
+      </c>
+      <c r="F179" t="s">
+        <v>14</v>
+      </c>
+      <c r="G179" t="s">
+        <v>14</v>
+      </c>
+      <c r="H179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="B182" t="s">
+        <v>262</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4</v>
+      </c>
+      <c r="D182" t="s">
+        <v>79</v>
+      </c>
+      <c r="E182" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" t="s">
+        <v>14</v>
+      </c>
+      <c r="G182" t="s">
+        <v>14</v>
+      </c>
+      <c r="H182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="B185" t="s">
+        <v>286</v>
+      </c>
+      <c r="C185" t="n">
         <v>2.7455</v>
       </c>
-      <c r="D179" t="s">
-        <v>276</v>
-      </c>
-      <c r="E179" t="s">
-        <v>277</v>
-      </c>
-      <c r="F179" t="s">
-        <v>63</v>
-      </c>
-      <c r="G179" t="s">
-        <v>278</v>
-      </c>
-      <c r="H179" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="B180" t="s">
-        <v>280</v>
-      </c>
-      <c r="C180" t="n">
-        <v>2.7389</v>
-      </c>
-      <c r="D180" t="s">
-        <v>192</v>
-      </c>
-      <c r="E180" t="s">
-        <v>281</v>
-      </c>
-      <c r="F180" t="s">
-        <v>282</v>
-      </c>
-      <c r="G180" t="s">
-        <v>283</v>
-      </c>
-      <c r="H180" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="B183" t="s">
-        <v>286</v>
-      </c>
-      <c r="C183" t="n">
-        <v>2.9837</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="D185" t="s">
         <v>287</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E185" t="s">
         <v>288</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F185" t="s">
+        <v>68</v>
+      </c>
+      <c r="G185" t="s">
         <v>289</v>
       </c>
-      <c r="G183" t="s">
+      <c r="H185" t="s">
         <v>290</v>
-      </c>
-      <c r="H183" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="B186" t="s">
+        <v>291</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.7389</v>
+      </c>
+      <c r="D186" t="s">
+        <v>204</v>
+      </c>
+      <c r="E186" t="s">
         <v>292</v>
       </c>
-      <c r="C186" t="n">
-        <v>2.8871</v>
-      </c>
-      <c r="D186" t="s">
+      <c r="F186" t="s">
         <v>293</v>
       </c>
-      <c r="E186" t="s">
+      <c r="G186" t="s">
         <v>294</v>
       </c>
-      <c r="F186" t="s">
+      <c r="H186" t="s">
         <v>295</v>
-      </c>
-      <c r="G186" t="s">
-        <v>296</v>
-      </c>
-      <c r="H186" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="B189" t="s">
+        <v>297</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.9837</v>
+      </c>
+      <c r="D189" t="s">
         <v>298</v>
       </c>
-      <c r="C189" t="n">
-        <v>2.0347</v>
-      </c>
-      <c r="D189" t="s">
-        <v>14</v>
-      </c>
       <c r="E189" t="s">
-        <v>51</v>
+        <v>299</v>
       </c>
       <c r="F189" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G189" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H189" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="B192" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C192" t="n">
-        <v>2.5889</v>
+        <v>2.8871</v>
       </c>
       <c r="D192" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E192" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>306</v>
       </c>
       <c r="G192" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H192" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="B195" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C195" t="n">
-        <v>2.125</v>
+        <v>2.0347</v>
       </c>
       <c r="D195" t="s">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="E195" t="s">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="F195" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G195" t="s">
-        <v>213</v>
+        <v>311</v>
       </c>
       <c r="H195" t="s">
-        <v>310</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="B198" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C198" t="n">
-        <v>2.4973</v>
+        <v>2.5889</v>
       </c>
       <c r="D198" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E198" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F198" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="G198" t="s">
         <v>316</v>
@@ -4039,200 +4096,159 @@
         <v>317</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
-      <c r="B199" t="s">
+    <row r="200" spans="1:8">
+      <c r="A200" t="s">
         <v>318</v>
       </c>
-      <c r="C199" t="n">
+    </row>
+    <row r="201" spans="1:8">
+      <c r="B201" t="s">
+        <v>319</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="D201" t="s">
+        <v>224</v>
+      </c>
+      <c r="E201" t="s">
+        <v>224</v>
+      </c>
+      <c r="F201" t="s">
+        <v>320</v>
+      </c>
+      <c r="G201" t="s">
+        <v>224</v>
+      </c>
+      <c r="H201" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="B204" t="s">
+        <v>323</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.4973</v>
+      </c>
+      <c r="D204" t="s">
+        <v>324</v>
+      </c>
+      <c r="E204" t="s">
+        <v>325</v>
+      </c>
+      <c r="F204" t="s">
+        <v>326</v>
+      </c>
+      <c r="G204" t="s">
+        <v>327</v>
+      </c>
+      <c r="H204" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="B205" t="s">
+        <v>329</v>
+      </c>
+      <c r="C205" t="n">
         <v>2.5933</v>
       </c>
-      <c r="D199" t="s">
-        <v>319</v>
-      </c>
-      <c r="E199" t="s">
-        <v>320</v>
-      </c>
-      <c r="F199" t="s">
-        <v>321</v>
-      </c>
-      <c r="G199" t="s">
-        <v>322</v>
-      </c>
-      <c r="H199" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="A201" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="B202" t="s">
-        <v>325</v>
-      </c>
-      <c r="C202" t="n">
+      <c r="D205" t="s">
+        <v>330</v>
+      </c>
+      <c r="E205" t="s">
+        <v>331</v>
+      </c>
+      <c r="F205" t="s">
+        <v>332</v>
+      </c>
+      <c r="G205" t="s">
+        <v>333</v>
+      </c>
+      <c r="H205" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="B208" t="s">
+        <v>336</v>
+      </c>
+      <c r="C208" t="n">
         <v>2.899</v>
       </c>
-      <c r="D202" t="s">
-        <v>326</v>
-      </c>
-      <c r="E202" t="s">
-        <v>327</v>
-      </c>
-      <c r="F202" t="s">
-        <v>213</v>
-      </c>
-      <c r="G202" t="s">
-        <v>328</v>
-      </c>
-      <c r="H202" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="B203" t="s">
-        <v>329</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.5415</v>
-      </c>
-      <c r="D203" t="s">
-        <v>310</v>
-      </c>
-      <c r="E203" t="s">
-        <v>271</v>
-      </c>
-      <c r="F203" t="s">
-        <v>330</v>
-      </c>
-      <c r="G203" t="s">
-        <v>266</v>
-      </c>
-      <c r="H203" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="B206" t="s">
-        <v>333</v>
-      </c>
-      <c r="C206" t="n">
-        <v>3.0245</v>
-      </c>
-      <c r="D206" t="s">
-        <v>334</v>
-      </c>
-      <c r="E206" t="s">
-        <v>335</v>
-      </c>
-      <c r="F206" t="s">
-        <v>336</v>
-      </c>
-      <c r="G206" t="s">
+      <c r="D208" t="s">
         <v>337</v>
       </c>
-      <c r="H206" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" t="s">
+      <c r="E208" t="s">
         <v>338</v>
+      </c>
+      <c r="F208" t="s">
+        <v>224</v>
+      </c>
+      <c r="G208" t="s">
+        <v>339</v>
+      </c>
+      <c r="H208" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="B209" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C209" t="n">
-        <v>3.952</v>
+        <v>2.5415</v>
       </c>
       <c r="D209" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="E209" t="s">
+        <v>282</v>
+      </c>
+      <c r="F209" t="s">
         <v>341</v>
       </c>
-      <c r="F209" t="s">
-        <v>14</v>
-      </c>
       <c r="G209" t="s">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="H209" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="B210" t="s">
         <v>342</v>
       </c>
-      <c r="C210" t="n">
-        <v>3.737</v>
-      </c>
-      <c r="D210" t="s">
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" t="s">
         <v>343</v>
-      </c>
-      <c r="E210" t="s">
-        <v>344</v>
-      </c>
-      <c r="F210" t="s">
-        <v>71</v>
-      </c>
-      <c r="G210" t="s">
-        <v>14</v>
-      </c>
-      <c r="H210" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="B211" t="s">
-        <v>280</v>
-      </c>
-      <c r="C211" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D211" t="s">
-        <v>212</v>
-      </c>
-      <c r="E211" t="s">
-        <v>345</v>
-      </c>
-      <c r="F211" t="s">
-        <v>346</v>
-      </c>
-      <c r="G211" t="s">
-        <v>14</v>
-      </c>
-      <c r="H211" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="B212" t="s">
+        <v>344</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.0245</v>
+      </c>
+      <c r="D212" t="s">
+        <v>345</v>
+      </c>
+      <c r="E212" t="s">
+        <v>346</v>
+      </c>
+      <c r="F212" t="s">
         <v>347</v>
       </c>
-      <c r="C212" t="n">
-        <v>3.6265</v>
-      </c>
-      <c r="D212" t="s">
-        <v>81</v>
-      </c>
-      <c r="E212" t="s">
-        <v>309</v>
-      </c>
-      <c r="F212" t="s">
+      <c r="G212" t="s">
         <v>348</v>
-      </c>
-      <c r="G212" t="s">
-        <v>14</v>
       </c>
       <c r="H212" t="s">
         <v>14</v>
@@ -4248,7 +4264,7 @@
         <v>350</v>
       </c>
       <c r="C215" t="n">
-        <v>2.8855</v>
+        <v>3.952</v>
       </c>
       <c r="D215" t="s">
         <v>351</v>
@@ -4257,117 +4273,158 @@
         <v>352</v>
       </c>
       <c r="F215" t="s">
-        <v>353</v>
+        <v>14</v>
       </c>
       <c r="G215" t="s">
-        <v>354</v>
+        <v>14</v>
       </c>
       <c r="H215" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="B216" t="s">
+        <v>353</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3.737</v>
+      </c>
+      <c r="D216" t="s">
+        <v>354</v>
+      </c>
+      <c r="E216" t="s">
+        <v>355</v>
+      </c>
+      <c r="F216" t="s">
+        <v>76</v>
+      </c>
+      <c r="G216" t="s">
+        <v>14</v>
+      </c>
+      <c r="H216" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="B217" t="s">
+        <v>291</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D217" t="s">
+        <v>223</v>
+      </c>
+      <c r="E217" t="s">
         <v>356</v>
       </c>
-      <c r="C216" t="n">
-        <v>2.811</v>
-      </c>
-      <c r="D216" t="s">
+      <c r="F217" t="s">
         <v>357</v>
       </c>
-      <c r="E216" t="s">
+      <c r="G217" t="s">
+        <v>14</v>
+      </c>
+      <c r="H217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="B218" t="s">
         <v>358</v>
       </c>
-      <c r="F216" t="s">
+      <c r="C218" t="n">
+        <v>3.6265</v>
+      </c>
+      <c r="D218" t="s">
+        <v>86</v>
+      </c>
+      <c r="E218" t="s">
+        <v>320</v>
+      </c>
+      <c r="F218" t="s">
         <v>359</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G218" t="s">
+        <v>14</v>
+      </c>
+      <c r="H218" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" t="s">
         <v>360</v>
       </c>
-      <c r="H216" t="s">
+    </row>
+    <row r="221" spans="1:8">
+      <c r="B221" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="A218" t="s">
+      <c r="C221" t="n">
+        <v>2.8855</v>
+      </c>
+      <c r="D221" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="B219" t="s">
-        <v>325</v>
-      </c>
-      <c r="C219" t="n">
-        <v>3.938</v>
-      </c>
-      <c r="D219" t="s">
+      <c r="E221" t="s">
         <v>363</v>
       </c>
-      <c r="E219" t="s">
+      <c r="F221" t="s">
         <v>364</v>
       </c>
-      <c r="F219" t="s">
-        <v>14</v>
-      </c>
-      <c r="G219" t="s">
-        <v>14</v>
-      </c>
-      <c r="H219" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" t="s">
+      <c r="G221" t="s">
         <v>365</v>
+      </c>
+      <c r="H221" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="B222" t="s">
-        <v>205</v>
+        <v>367</v>
       </c>
       <c r="C222" t="n">
-        <v>3.111</v>
+        <v>2.811</v>
       </c>
       <c r="D222" t="s">
-        <v>224</v>
+        <v>368</v>
       </c>
       <c r="E222" t="s">
-        <v>224</v>
+        <v>369</v>
       </c>
       <c r="F222" t="s">
-        <v>84</v>
+        <v>370</v>
       </c>
       <c r="G222" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H222" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="B225" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="C225" t="n">
-        <v>2.919</v>
+        <v>3.938</v>
       </c>
       <c r="D225" t="s">
-        <v>282</v>
+        <v>374</v>
       </c>
       <c r="E225" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F225" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="G225" t="s">
-        <v>370</v>
+        <v>14</v>
       </c>
       <c r="H225" t="s">
         <v>14</v>
@@ -4375,27 +4432,27 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="B228" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="C228" t="n">
-        <v>2.6</v>
+        <v>3.111</v>
       </c>
       <c r="D228" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="E228" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="F228" t="s">
-        <v>259</v>
+        <v>89</v>
       </c>
       <c r="G228" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="H228" t="s">
         <v>14</v>
@@ -4403,27 +4460,27 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="B231" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C231" t="n">
-        <v>3.6425</v>
+        <v>2.919</v>
       </c>
       <c r="D231" t="s">
-        <v>375</v>
+        <v>293</v>
       </c>
       <c r="E231" t="s">
-        <v>244</v>
+        <v>380</v>
       </c>
       <c r="F231" t="s">
-        <v>376</v>
+        <v>173</v>
       </c>
       <c r="G231" t="s">
-        <v>244</v>
+        <v>381</v>
       </c>
       <c r="H231" t="s">
         <v>14</v>
@@ -4431,24 +4488,24 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="234" spans="1:8">
       <c r="B234" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
       <c r="C234" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="D234" t="s">
-        <v>232</v>
+        <v>14</v>
       </c>
       <c r="E234" t="s">
-        <v>59</v>
+        <v>271</v>
       </c>
       <c r="F234" t="s">
-        <v>88</v>
+        <v>270</v>
       </c>
       <c r="G234" t="s">
         <v>14</v>
@@ -4459,52 +4516,52 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="B237" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C237" t="n">
-        <v>2.6122</v>
+        <v>3.6425</v>
       </c>
       <c r="D237" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E237" t="s">
-        <v>381</v>
+        <v>255</v>
       </c>
       <c r="F237" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G237" t="s">
-        <v>383</v>
+        <v>255</v>
       </c>
       <c r="H237" t="s">
-        <v>384</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="B240" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="C240" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="D240" t="s">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="E240" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="G240" t="s">
         <v>14</v>
@@ -4513,89 +4570,48 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
-      <c r="B241" t="s">
-        <v>386</v>
-      </c>
-      <c r="C241" t="n">
-        <v>4</v>
-      </c>
-      <c r="D241" t="s">
-        <v>74</v>
-      </c>
-      <c r="E241" t="s">
-        <v>14</v>
-      </c>
-      <c r="F241" t="s">
-        <v>14</v>
-      </c>
-      <c r="G241" t="s">
-        <v>14</v>
-      </c>
-      <c r="H241" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="242" spans="1:8">
-      <c r="B242" t="s">
-        <v>387</v>
-      </c>
-      <c r="C242" t="n">
-        <v>4</v>
-      </c>
-      <c r="D242" t="s">
-        <v>74</v>
-      </c>
-      <c r="E242" t="s">
-        <v>14</v>
-      </c>
-      <c r="F242" t="s">
-        <v>14</v>
-      </c>
-      <c r="G242" t="s">
-        <v>14</v>
-      </c>
-      <c r="H242" t="s">
-        <v>14</v>
+      <c r="A242" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="243" spans="1:8">
       <c r="B243" t="s">
-        <v>325</v>
+        <v>390</v>
       </c>
       <c r="C243" t="n">
-        <v>4</v>
+        <v>2.6122</v>
       </c>
       <c r="D243" t="s">
-        <v>74</v>
+        <v>391</v>
       </c>
       <c r="E243" t="s">
-        <v>14</v>
+        <v>392</v>
       </c>
       <c r="F243" t="s">
-        <v>14</v>
+        <v>393</v>
       </c>
       <c r="G243" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
       <c r="H243" t="s">
-        <v>14</v>
+        <v>395</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="B246" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="C246" t="n">
         <v>4</v>
       </c>
       <c r="D246" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E246" t="s">
         <v>14</v>
@@ -4610,23 +4626,64 @@
         <v>14</v>
       </c>
     </row>
+    <row r="247" spans="1:8">
+      <c r="B247" t="s">
+        <v>397</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4</v>
+      </c>
+      <c r="D247" t="s">
+        <v>79</v>
+      </c>
+      <c r="E247" t="s">
+        <v>14</v>
+      </c>
+      <c r="F247" t="s">
+        <v>14</v>
+      </c>
+      <c r="G247" t="s">
+        <v>14</v>
+      </c>
+      <c r="H247" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="248" spans="1:8">
-      <c r="A248" t="s">
-        <v>389</v>
+      <c r="B248" t="s">
+        <v>398</v>
+      </c>
+      <c r="C248" t="n">
+        <v>4</v>
+      </c>
+      <c r="D248" t="s">
+        <v>79</v>
+      </c>
+      <c r="E248" t="s">
+        <v>14</v>
+      </c>
+      <c r="F248" t="s">
+        <v>14</v>
+      </c>
+      <c r="G248" t="s">
+        <v>14</v>
+      </c>
+      <c r="H248" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="B249" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="C249" t="n">
-        <v>3.833</v>
+        <v>4</v>
       </c>
       <c r="D249" t="s">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="E249" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F249" t="s">
         <v>14</v>
@@ -4640,24 +4697,24 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="B252" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C252" t="n">
-        <v>3.077</v>
+        <v>4</v>
       </c>
       <c r="D252" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E252" t="s">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="F252" t="s">
-        <v>345</v>
+        <v>14</v>
       </c>
       <c r="G252" t="s">
         <v>14</v>
@@ -4668,24 +4725,24 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="B255" t="s">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="C255" t="n">
-        <v>3.842</v>
+        <v>3.833</v>
       </c>
       <c r="D255" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="E255" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F255" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="G255" t="s">
         <v>14</v>
@@ -4696,24 +4753,24 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="B258" t="s">
-        <v>302</v>
+        <v>379</v>
       </c>
       <c r="C258" t="n">
-        <v>3.778</v>
+        <v>3.077</v>
       </c>
       <c r="D258" t="s">
-        <v>395</v>
+        <v>68</v>
       </c>
       <c r="E258" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="F258" t="s">
-        <v>14</v>
+        <v>356</v>
       </c>
       <c r="G258" t="s">
         <v>14</v>
@@ -4724,154 +4781,154 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="B261" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="C261" t="n">
+        <v>3.842</v>
+      </c>
+      <c r="D261" t="s">
+        <v>404</v>
+      </c>
+      <c r="E261" t="s">
+        <v>76</v>
+      </c>
+      <c r="F261" t="s">
+        <v>76</v>
+      </c>
+      <c r="G261" t="s">
+        <v>14</v>
+      </c>
+      <c r="H261" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="B264" t="s">
+        <v>313</v>
+      </c>
+      <c r="C264" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D264" t="s">
+        <v>406</v>
+      </c>
+      <c r="E264" t="s">
+        <v>205</v>
+      </c>
+      <c r="F264" t="s">
+        <v>14</v>
+      </c>
+      <c r="G264" t="s">
+        <v>14</v>
+      </c>
+      <c r="H264" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="B267" t="s">
+        <v>385</v>
+      </c>
+      <c r="C267" t="n">
         <v>4</v>
       </c>
-      <c r="D261" t="s">
-        <v>74</v>
-      </c>
-      <c r="E261" t="s">
-        <v>14</v>
-      </c>
-      <c r="F261" t="s">
-        <v>14</v>
-      </c>
-      <c r="G261" t="s">
-        <v>14</v>
-      </c>
-      <c r="H261" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="B262" t="s">
-        <v>368</v>
-      </c>
-      <c r="C262" t="n">
+      <c r="D267" t="s">
+        <v>79</v>
+      </c>
+      <c r="E267" t="s">
+        <v>14</v>
+      </c>
+      <c r="F267" t="s">
+        <v>14</v>
+      </c>
+      <c r="G267" t="s">
+        <v>14</v>
+      </c>
+      <c r="H267" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="B268" t="s">
+        <v>379</v>
+      </c>
+      <c r="C268" t="n">
         <v>4</v>
       </c>
-      <c r="D262" t="s">
-        <v>74</v>
-      </c>
-      <c r="E262" t="s">
-        <v>14</v>
-      </c>
-      <c r="F262" t="s">
-        <v>14</v>
-      </c>
-      <c r="G262" t="s">
-        <v>14</v>
-      </c>
-      <c r="H262" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="B263" t="s">
-        <v>387</v>
-      </c>
-      <c r="C263" t="n">
-        <v>4</v>
-      </c>
-      <c r="D263" t="s">
-        <v>74</v>
-      </c>
-      <c r="E263" t="s">
-        <v>14</v>
-      </c>
-      <c r="F263" t="s">
-        <v>14</v>
-      </c>
-      <c r="G263" t="s">
-        <v>14</v>
-      </c>
-      <c r="H263" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="B266" t="s">
-        <v>398</v>
-      </c>
-      <c r="C266" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D266" t="s">
-        <v>399</v>
-      </c>
-      <c r="E266" t="s">
-        <v>94</v>
-      </c>
-      <c r="F266" t="s">
-        <v>14</v>
-      </c>
-      <c r="G266" t="s">
-        <v>14</v>
-      </c>
-      <c r="H266" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" t="s">
-        <v>400</v>
+      <c r="D268" t="s">
+        <v>79</v>
+      </c>
+      <c r="E268" t="s">
+        <v>14</v>
+      </c>
+      <c r="F268" t="s">
+        <v>14</v>
+      </c>
+      <c r="G268" t="s">
+        <v>14</v>
+      </c>
+      <c r="H268" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="B269" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C269" t="n">
-        <v>2.9267</v>
+        <v>4</v>
       </c>
       <c r="D269" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E269" t="s">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="F269" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="G269" t="s">
-        <v>402</v>
+        <v>14</v>
       </c>
       <c r="H269" t="s">
-        <v>346</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="B272" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C272" t="n">
-        <v>3.111</v>
+        <v>3.857</v>
       </c>
       <c r="D272" t="s">
-        <v>193</v>
+        <v>410</v>
       </c>
       <c r="E272" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F272" t="s">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="G272" t="s">
         <v>14</v>
@@ -4882,52 +4939,52 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="B275" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C275" t="n">
-        <v>2.776</v>
+        <v>2.9267</v>
       </c>
       <c r="D275" t="s">
-        <v>407</v>
+        <v>68</v>
       </c>
       <c r="E275" t="s">
-        <v>408</v>
+        <v>275</v>
       </c>
       <c r="F275" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G275" t="s">
-        <v>163</v>
+        <v>413</v>
       </c>
       <c r="H275" t="s">
-        <v>14</v>
+        <v>357</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="B278" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C278" t="n">
-        <v>3.454</v>
+        <v>3.111</v>
       </c>
       <c r="D278" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="E278" t="s">
-        <v>411</v>
+        <v>86</v>
       </c>
       <c r="F278" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="G278" t="s">
         <v>14</v>
@@ -4938,100 +4995,100 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="B281" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C281" t="n">
+        <v>2.776</v>
+      </c>
+      <c r="D281" t="s">
+        <v>418</v>
+      </c>
+      <c r="E281" t="s">
+        <v>419</v>
+      </c>
+      <c r="F281" t="s">
+        <v>47</v>
+      </c>
+      <c r="G281" t="s">
+        <v>168</v>
+      </c>
+      <c r="H281" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="B284" t="s">
+        <v>421</v>
+      </c>
+      <c r="C284" t="n">
+        <v>3.454</v>
+      </c>
+      <c r="D284" t="s">
+        <v>71</v>
+      </c>
+      <c r="E284" t="s">
+        <v>422</v>
+      </c>
+      <c r="F284" t="s">
+        <v>14</v>
+      </c>
+      <c r="G284" t="s">
+        <v>14</v>
+      </c>
+      <c r="H284" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="B287" t="s">
+        <v>421</v>
+      </c>
+      <c r="C287" t="n">
         <v>4</v>
       </c>
-      <c r="D281" t="s">
-        <v>74</v>
-      </c>
-      <c r="E281" t="s">
-        <v>14</v>
-      </c>
-      <c r="F281" t="s">
-        <v>14</v>
-      </c>
-      <c r="G281" t="s">
-        <v>14</v>
-      </c>
-      <c r="H281" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="B282" t="s">
-        <v>413</v>
-      </c>
-      <c r="C282" t="n">
-        <v>4</v>
-      </c>
-      <c r="D282" t="s">
-        <v>74</v>
-      </c>
-      <c r="E282" t="s">
-        <v>14</v>
-      </c>
-      <c r="F282" t="s">
-        <v>14</v>
-      </c>
-      <c r="G282" t="s">
-        <v>14</v>
-      </c>
-      <c r="H282" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
-      <c r="A284" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="B285" t="s">
-        <v>415</v>
-      </c>
-      <c r="C285" t="n">
-        <v>4</v>
-      </c>
-      <c r="D285" t="s">
-        <v>74</v>
-      </c>
-      <c r="E285" t="s">
-        <v>14</v>
-      </c>
-      <c r="F285" t="s">
-        <v>14</v>
-      </c>
-      <c r="G285" t="s">
-        <v>14</v>
-      </c>
-      <c r="H285" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
-      <c r="A287" t="s">
-        <v>416</v>
+      <c r="D287" t="s">
+        <v>79</v>
+      </c>
+      <c r="E287" t="s">
+        <v>14</v>
+      </c>
+      <c r="F287" t="s">
+        <v>14</v>
+      </c>
+      <c r="G287" t="s">
+        <v>14</v>
+      </c>
+      <c r="H287" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="B288" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="C288" t="n">
-        <v>3.714</v>
+        <v>4</v>
       </c>
       <c r="D288" t="s">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="E288" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F288" t="s">
         <v>14</v>
@@ -5045,21 +5102,21 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="291" spans="1:8">
       <c r="B291" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C291" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D291" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E291" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F291" t="s">
         <v>14</v>
@@ -5073,21 +5130,21 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="B294" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C294" t="n">
-        <v>4</v>
+        <v>3.714</v>
       </c>
       <c r="D294" t="s">
-        <v>74</v>
+        <v>428</v>
       </c>
       <c r="E294" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F294" t="s">
         <v>14</v>
@@ -5101,21 +5158,21 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="B297" t="s">
-        <v>329</v>
+        <v>430</v>
       </c>
       <c r="C297" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D297" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E297" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F297" t="s">
         <v>14</v>
@@ -5129,21 +5186,21 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="B300" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="C300" t="n">
-        <v>3.96</v>
+        <v>4</v>
       </c>
       <c r="D300" t="s">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="E300" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="F300" t="s">
         <v>14</v>
@@ -5157,27 +5214,27 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="B303" t="s">
-        <v>426</v>
+        <v>340</v>
       </c>
       <c r="C303" t="n">
-        <v>2.927</v>
+        <v>4</v>
       </c>
       <c r="D303" t="s">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="E303" t="s">
-        <v>428</v>
+        <v>14</v>
       </c>
       <c r="F303" t="s">
-        <v>303</v>
+        <v>14</v>
       </c>
       <c r="G303" t="s">
-        <v>429</v>
+        <v>14</v>
       </c>
       <c r="H303" t="s">
         <v>14</v>
@@ -5185,157 +5242,157 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="306" spans="1:8">
       <c r="B306" t="s">
+        <v>417</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="D306" t="s">
+        <v>435</v>
+      </c>
+      <c r="E306" t="s">
+        <v>174</v>
+      </c>
+      <c r="F306" t="s">
+        <v>14</v>
+      </c>
+      <c r="G306" t="s">
+        <v>14</v>
+      </c>
+      <c r="H306" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="B309" t="s">
+        <v>437</v>
+      </c>
+      <c r="C309" t="n">
+        <v>2.927</v>
+      </c>
+      <c r="D309" t="s">
+        <v>438</v>
+      </c>
+      <c r="E309" t="s">
+        <v>439</v>
+      </c>
+      <c r="F309" t="s">
+        <v>314</v>
+      </c>
+      <c r="G309" t="s">
+        <v>440</v>
+      </c>
+      <c r="H309" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="B312" t="s">
+        <v>50</v>
+      </c>
+      <c r="C312" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="D312" t="s">
+        <v>442</v>
+      </c>
+      <c r="E312" t="s">
+        <v>443</v>
+      </c>
+      <c r="F312" t="s">
+        <v>204</v>
+      </c>
+      <c r="G312" t="s">
+        <v>230</v>
+      </c>
+      <c r="H312" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="B315" t="s">
         <v>15</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C315" t="n">
         <v>4</v>
       </c>
-      <c r="D306" t="s">
-        <v>74</v>
-      </c>
-      <c r="E306" t="s">
-        <v>14</v>
-      </c>
-      <c r="F306" t="s">
-        <v>14</v>
-      </c>
-      <c r="G306" t="s">
-        <v>14</v>
-      </c>
-      <c r="H306" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
-      <c r="B307" t="s">
-        <v>379</v>
-      </c>
-      <c r="C307" t="n">
+      <c r="D315" t="s">
+        <v>79</v>
+      </c>
+      <c r="E315" t="s">
+        <v>14</v>
+      </c>
+      <c r="F315" t="s">
+        <v>14</v>
+      </c>
+      <c r="G315" t="s">
+        <v>14</v>
+      </c>
+      <c r="H315" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="B316" t="s">
+        <v>390</v>
+      </c>
+      <c r="C316" t="n">
         <v>3.556</v>
       </c>
-      <c r="D307" t="s">
-        <v>431</v>
-      </c>
-      <c r="E307" t="s">
-        <v>239</v>
-      </c>
-      <c r="F307" t="s">
-        <v>14</v>
-      </c>
-      <c r="G307" t="s">
-        <v>14</v>
-      </c>
-      <c r="H307" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="B308" t="s">
-        <v>256</v>
-      </c>
-      <c r="C308" t="n">
-        <v>3.478</v>
-      </c>
-      <c r="D308" t="s">
-        <v>432</v>
-      </c>
-      <c r="E308" t="s">
-        <v>433</v>
-      </c>
-      <c r="F308" t="s">
-        <v>434</v>
-      </c>
-      <c r="G308" t="s">
-        <v>14</v>
-      </c>
-      <c r="H308" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
-      <c r="A310" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
-      <c r="B311" t="s">
-        <v>436</v>
-      </c>
-      <c r="C311" t="n">
-        <v>3.291</v>
-      </c>
-      <c r="D311" t="s">
-        <v>437</v>
-      </c>
-      <c r="E311" t="s">
-        <v>438</v>
-      </c>
-      <c r="F311" t="s">
-        <v>439</v>
-      </c>
-      <c r="G311" t="s">
-        <v>440</v>
-      </c>
-      <c r="H311" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
-      <c r="A313" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
-      <c r="B314" t="s">
-        <v>442</v>
-      </c>
-      <c r="C314" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D314" t="s">
+      <c r="D316" t="s">
         <v>443</v>
       </c>
-      <c r="E314" t="s">
-        <v>444</v>
-      </c>
-      <c r="F314" t="s">
-        <v>445</v>
-      </c>
-      <c r="G314" t="s">
-        <v>14</v>
-      </c>
-      <c r="H314" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
-      <c r="A316" t="s">
-        <v>446</v>
+      <c r="E316" t="s">
+        <v>250</v>
+      </c>
+      <c r="F316" t="s">
+        <v>14</v>
+      </c>
+      <c r="G316" t="s">
+        <v>14</v>
+      </c>
+      <c r="H316" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="317" spans="1:8">
       <c r="B317" t="s">
+        <v>267</v>
+      </c>
+      <c r="C317" t="n">
+        <v>3.478</v>
+      </c>
+      <c r="D317" t="s">
+        <v>445</v>
+      </c>
+      <c r="E317" t="s">
+        <v>446</v>
+      </c>
+      <c r="F317" t="s">
         <v>447</v>
       </c>
-      <c r="C317" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="D317" t="s">
-        <v>448</v>
-      </c>
-      <c r="E317" t="s">
-        <v>51</v>
-      </c>
-      <c r="F317" t="s">
-        <v>51</v>
-      </c>
       <c r="G317" t="s">
-        <v>449</v>
+        <v>14</v>
       </c>
       <c r="H317" t="s">
         <v>14</v>
@@ -5343,55 +5400,55 @@
     </row>
     <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="B320" t="s">
+        <v>449</v>
+      </c>
+      <c r="C320" t="n">
+        <v>3.291</v>
+      </c>
+      <c r="D320" t="s">
+        <v>450</v>
+      </c>
+      <c r="E320" t="s">
         <v>451</v>
-      </c>
-      <c r="C320" t="n">
-        <v>2.923</v>
-      </c>
-      <c r="D320" t="s">
-        <v>27</v>
-      </c>
-      <c r="E320" t="s">
-        <v>236</v>
       </c>
       <c r="F320" t="s">
         <v>452</v>
       </c>
       <c r="G320" t="s">
-        <v>236</v>
+        <v>453</v>
       </c>
       <c r="H320" t="s">
-        <v>14</v>
+        <v>453</v>
       </c>
     </row>
     <row r="322" spans="1:8">
       <c r="A322" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="323" spans="1:8">
       <c r="B323" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C323" t="n">
-        <v>3.3215</v>
+        <v>3.667</v>
       </c>
       <c r="D323" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E323" t="s">
-        <v>309</v>
+        <v>457</v>
       </c>
       <c r="F323" t="s">
-        <v>266</v>
+        <v>458</v>
       </c>
       <c r="G323" t="s">
-        <v>348</v>
+        <v>14</v>
       </c>
       <c r="H323" t="s">
         <v>14</v>
@@ -5399,27 +5456,27 @@
     </row>
     <row r="325" spans="1:8">
       <c r="A325" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="326" spans="1:8">
       <c r="B326" t="s">
-        <v>149</v>
+        <v>460</v>
       </c>
       <c r="C326" t="n">
-        <v>4</v>
+        <v>2.81</v>
       </c>
       <c r="D326" t="s">
-        <v>74</v>
+        <v>461</v>
       </c>
       <c r="E326" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F326" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="G326" t="s">
-        <v>14</v>
+        <v>462</v>
       </c>
       <c r="H326" t="s">
         <v>14</v>
@@ -5427,27 +5484,27 @@
     </row>
     <row r="328" spans="1:8">
       <c r="A328" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="329" spans="1:8">
       <c r="B329" t="s">
-        <v>149</v>
+        <v>464</v>
       </c>
       <c r="C329" t="n">
-        <v>3.923</v>
+        <v>2.923</v>
       </c>
       <c r="D329" t="s">
-        <v>458</v>
+        <v>27</v>
       </c>
       <c r="E329" t="s">
-        <v>439</v>
+        <v>247</v>
       </c>
       <c r="F329" t="s">
-        <v>14</v>
+        <v>465</v>
       </c>
       <c r="G329" t="s">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="H329" t="s">
         <v>14</v>
@@ -5455,427 +5512,427 @@
     </row>
     <row r="331" spans="1:8">
       <c r="A331" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="332" spans="1:8">
       <c r="B332" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C332" t="n">
-        <v>3.319</v>
+        <v>3.3215</v>
       </c>
       <c r="D332" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="E332" t="s">
-        <v>462</v>
+        <v>320</v>
       </c>
       <c r="F332" t="s">
-        <v>94</v>
+        <v>277</v>
       </c>
       <c r="G332" t="s">
-        <v>463</v>
+        <v>359</v>
       </c>
       <c r="H332" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
-      <c r="B333" t="s">
-        <v>464</v>
-      </c>
-      <c r="C333" t="n">
-        <v>2.964</v>
-      </c>
-      <c r="D333" t="s">
-        <v>48</v>
-      </c>
-      <c r="E333" t="s">
-        <v>465</v>
-      </c>
-      <c r="F333" t="s">
-        <v>466</v>
-      </c>
-      <c r="G333" t="s">
-        <v>467</v>
-      </c>
-      <c r="H333" t="s">
-        <v>467</v>
-      </c>
-    </row>
     <row r="334" spans="1:8">
-      <c r="B334" t="s">
-        <v>468</v>
-      </c>
-      <c r="C334" t="n">
-        <v>3.353</v>
-      </c>
-      <c r="D334" t="s">
+      <c r="A334" t="s">
         <v>469</v>
-      </c>
-      <c r="E334" t="s">
-        <v>470</v>
-      </c>
-      <c r="F334" t="s">
-        <v>353</v>
-      </c>
-      <c r="G334" t="s">
-        <v>14</v>
-      </c>
-      <c r="H334" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="335" spans="1:8">
       <c r="B335" t="s">
-        <v>471</v>
+        <v>154</v>
       </c>
       <c r="C335" t="n">
-        <v>3.2237</v>
+        <v>4</v>
       </c>
       <c r="D335" t="s">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="E335" t="s">
-        <v>473</v>
+        <v>14</v>
       </c>
       <c r="F335" t="s">
-        <v>474</v>
+        <v>14</v>
       </c>
       <c r="G335" t="s">
-        <v>475</v>
+        <v>14</v>
       </c>
       <c r="H335" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
-      <c r="B336" t="s">
-        <v>476</v>
-      </c>
-      <c r="C336" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="D336" t="s">
-        <v>477</v>
-      </c>
-      <c r="E336" t="s">
-        <v>478</v>
-      </c>
-      <c r="F336" t="s">
-        <v>168</v>
-      </c>
-      <c r="G336" t="s">
-        <v>328</v>
-      </c>
-      <c r="H336" t="s">
-        <v>479</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:8">
-      <c r="B337" t="s">
-        <v>480</v>
-      </c>
-      <c r="C337" t="n">
-        <v>3.354</v>
-      </c>
-      <c r="D337" t="s">
-        <v>481</v>
-      </c>
-      <c r="E337" t="s">
-        <v>482</v>
-      </c>
-      <c r="F337" t="s">
-        <v>483</v>
-      </c>
-      <c r="G337" t="s">
-        <v>484</v>
-      </c>
-      <c r="H337" t="s">
-        <v>485</v>
+      <c r="A337" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="338" spans="1:8">
       <c r="B338" t="s">
-        <v>486</v>
+        <v>154</v>
       </c>
       <c r="C338" t="n">
-        <v>3.239</v>
+        <v>3.923</v>
       </c>
       <c r="D338" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="E338" t="s">
-        <v>241</v>
+        <v>452</v>
       </c>
       <c r="F338" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="G338" t="s">
-        <v>488</v>
+        <v>14</v>
       </c>
       <c r="H338" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
-      <c r="B339" t="s">
-        <v>489</v>
-      </c>
-      <c r="C339" t="n">
-        <v>3.182</v>
-      </c>
-      <c r="D339" t="s">
-        <v>490</v>
-      </c>
-      <c r="E339" t="s">
-        <v>187</v>
-      </c>
-      <c r="F339" t="s">
-        <v>67</v>
-      </c>
-      <c r="G339" t="s">
-        <v>189</v>
-      </c>
-      <c r="H339" t="s">
-        <v>491</v>
+        <v>14</v>
       </c>
     </row>
     <row r="340" spans="1:8">
-      <c r="B340" t="s">
-        <v>492</v>
-      </c>
-      <c r="C340" t="n">
-        <v>2.817</v>
-      </c>
-      <c r="D340" t="s">
-        <v>493</v>
-      </c>
-      <c r="E340" t="s">
-        <v>277</v>
-      </c>
-      <c r="F340" t="s">
-        <v>380</v>
-      </c>
-      <c r="G340" t="s">
-        <v>494</v>
-      </c>
-      <c r="H340" t="s">
-        <v>495</v>
+      <c r="A340" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="341" spans="1:8">
       <c r="B341" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="C341" t="n">
-        <v>2.569</v>
+        <v>3.319</v>
       </c>
       <c r="D341" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="E341" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="F341" t="s">
-        <v>498</v>
+        <v>99</v>
       </c>
       <c r="G341" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="H341" t="s">
-        <v>354</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="B342" t="s">
+        <v>477</v>
+      </c>
+      <c r="C342" t="n">
+        <v>2.964</v>
+      </c>
+      <c r="D342" t="s">
+        <v>48</v>
+      </c>
+      <c r="E342" t="s">
+        <v>478</v>
+      </c>
+      <c r="F342" t="s">
+        <v>479</v>
+      </c>
+      <c r="G342" t="s">
+        <v>480</v>
+      </c>
+      <c r="H342" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="343" spans="1:8">
-      <c r="A343" t="s">
-        <v>500</v>
+      <c r="B343" t="s">
+        <v>481</v>
+      </c>
+      <c r="C343" t="n">
+        <v>3.353</v>
+      </c>
+      <c r="D343" t="s">
+        <v>482</v>
+      </c>
+      <c r="E343" t="s">
+        <v>483</v>
+      </c>
+      <c r="F343" t="s">
+        <v>364</v>
+      </c>
+      <c r="G343" t="s">
+        <v>14</v>
+      </c>
+      <c r="H343" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="344" spans="1:8">
       <c r="B344" t="s">
+        <v>484</v>
+      </c>
+      <c r="C344" t="n">
+        <v>3.2237</v>
+      </c>
+      <c r="D344" t="s">
+        <v>485</v>
+      </c>
+      <c r="E344" t="s">
+        <v>486</v>
+      </c>
+      <c r="F344" t="s">
+        <v>487</v>
+      </c>
+      <c r="G344" t="s">
+        <v>488</v>
+      </c>
+      <c r="H344" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="B345" t="s">
         <v>489</v>
       </c>
-      <c r="C344" t="n">
-        <v>3.4727</v>
-      </c>
-      <c r="D344" t="s">
-        <v>501</v>
-      </c>
-      <c r="E344" t="s">
+      <c r="C345" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D345" t="s">
+        <v>490</v>
+      </c>
+      <c r="E345" t="s">
+        <v>491</v>
+      </c>
+      <c r="F345" t="s">
+        <v>173</v>
+      </c>
+      <c r="G345" t="s">
+        <v>339</v>
+      </c>
+      <c r="H345" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="B346" t="s">
         <v>493</v>
       </c>
-      <c r="F344" t="s">
-        <v>502</v>
-      </c>
-      <c r="G344" t="s">
-        <v>503</v>
-      </c>
-      <c r="H344" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
-      <c r="A346" t="s">
-        <v>505</v>
+      <c r="C346" t="n">
+        <v>3.354</v>
+      </c>
+      <c r="D346" t="s">
+        <v>494</v>
+      </c>
+      <c r="E346" t="s">
+        <v>495</v>
+      </c>
+      <c r="F346" t="s">
+        <v>496</v>
+      </c>
+      <c r="G346" t="s">
+        <v>497</v>
+      </c>
+      <c r="H346" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="347" spans="1:8">
       <c r="B347" t="s">
+        <v>499</v>
+      </c>
+      <c r="C347" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="D347" t="s">
+        <v>500</v>
+      </c>
+      <c r="E347" t="s">
+        <v>252</v>
+      </c>
+      <c r="F347" t="s">
+        <v>93</v>
+      </c>
+      <c r="G347" t="s">
+        <v>501</v>
+      </c>
+      <c r="H347" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="B348" t="s">
+        <v>502</v>
+      </c>
+      <c r="C348" t="n">
+        <v>3.182</v>
+      </c>
+      <c r="D348" t="s">
+        <v>503</v>
+      </c>
+      <c r="E348" t="s">
+        <v>192</v>
+      </c>
+      <c r="F348" t="s">
+        <v>72</v>
+      </c>
+      <c r="G348" t="s">
+        <v>194</v>
+      </c>
+      <c r="H348" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="B349" t="s">
+        <v>505</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2.817</v>
+      </c>
+      <c r="D349" t="s">
         <v>506</v>
       </c>
-      <c r="C347" t="n">
-        <v>2.882</v>
-      </c>
-      <c r="D347" t="s">
+      <c r="E349" t="s">
+        <v>288</v>
+      </c>
+      <c r="F349" t="s">
+        <v>391</v>
+      </c>
+      <c r="G349" t="s">
         <v>507</v>
       </c>
-      <c r="E347" t="s">
-        <v>496</v>
-      </c>
-      <c r="F347" t="s">
-        <v>497</v>
-      </c>
-      <c r="G347" t="s">
-        <v>353</v>
-      </c>
-      <c r="H347" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
-      <c r="A349" t="s">
+      <c r="H349" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="350" spans="1:8">
       <c r="B350" t="s">
+        <v>467</v>
+      </c>
+      <c r="C350" t="n">
+        <v>2.569</v>
+      </c>
+      <c r="D350" t="s">
         <v>509</v>
       </c>
-      <c r="C350" t="n">
-        <v>3.429</v>
-      </c>
-      <c r="D350" t="s">
-        <v>93</v>
-      </c>
       <c r="E350" t="s">
-        <v>47</v>
+        <v>510</v>
       </c>
       <c r="F350" t="s">
-        <v>94</v>
+        <v>511</v>
       </c>
       <c r="G350" t="s">
-        <v>14</v>
+        <v>512</v>
       </c>
       <c r="H350" t="s">
-        <v>14</v>
+        <v>365</v>
       </c>
     </row>
     <row r="352" spans="1:8">
       <c r="A352" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="353" spans="1:8">
       <c r="B353" t="s">
+        <v>502</v>
+      </c>
+      <c r="C353" t="n">
+        <v>3.4727</v>
+      </c>
+      <c r="D353" t="s">
+        <v>514</v>
+      </c>
+      <c r="E353" t="s">
         <v>506</v>
       </c>
-      <c r="C353" t="n">
-        <v>2.5135</v>
-      </c>
-      <c r="D353" t="s">
-        <v>222</v>
-      </c>
-      <c r="E353" t="s">
-        <v>46</v>
-      </c>
       <c r="F353" t="s">
-        <v>36</v>
+        <v>515</v>
       </c>
       <c r="G353" t="s">
-        <v>341</v>
+        <v>516</v>
       </c>
       <c r="H353" t="s">
-        <v>341</v>
+        <v>517</v>
       </c>
     </row>
     <row r="355" spans="1:8">
       <c r="A355" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="356" spans="1:8">
       <c r="B356" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C356" t="n">
-        <v>3.167</v>
+        <v>3.457</v>
       </c>
       <c r="D356" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="E356" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="F356" t="s">
-        <v>364</v>
+        <v>522</v>
       </c>
       <c r="G356" t="s">
-        <v>445</v>
+        <v>160</v>
       </c>
       <c r="H356" t="s">
-        <v>515</v>
+        <v>160</v>
       </c>
     </row>
     <row r="358" spans="1:8">
       <c r="A358" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="359" spans="1:8">
       <c r="B359" t="s">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="C359" t="n">
-        <v>3.514</v>
+        <v>2.882</v>
       </c>
       <c r="D359" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="E359" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="F359" t="s">
-        <v>203</v>
+        <v>510</v>
       </c>
       <c r="G359" t="s">
-        <v>14</v>
+        <v>364</v>
       </c>
       <c r="H359" t="s">
-        <v>203</v>
+        <v>14</v>
       </c>
     </row>
     <row r="361" spans="1:8">
       <c r="A361" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="362" spans="1:8">
       <c r="B362" t="s">
-        <v>489</v>
+        <v>527</v>
       </c>
       <c r="C362" t="n">
-        <v>3.625</v>
+        <v>3.429</v>
       </c>
       <c r="D362" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="E362" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="F362" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G362" t="s">
         <v>14</v>
@@ -5886,80 +5943,80 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="365" spans="1:8">
       <c r="B365" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C365" t="n">
-        <v>3.75</v>
+        <v>2.5135</v>
       </c>
       <c r="D365" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="E365" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F365" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G365" t="s">
-        <v>14</v>
+        <v>352</v>
       </c>
       <c r="H365" t="s">
-        <v>14</v>
+        <v>352</v>
       </c>
     </row>
     <row r="367" spans="1:8">
       <c r="A367" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="368" spans="1:8">
       <c r="B368" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="C368" t="n">
-        <v>3.667</v>
+        <v>3.167</v>
       </c>
       <c r="D368" t="s">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="E368" t="s">
-        <v>36</v>
+        <v>532</v>
       </c>
       <c r="F368" t="s">
-        <v>14</v>
+        <v>375</v>
       </c>
       <c r="G368" t="s">
-        <v>14</v>
+        <v>458</v>
       </c>
       <c r="H368" t="s">
-        <v>14</v>
+        <v>533</v>
       </c>
     </row>
     <row r="370" spans="1:8">
       <c r="A370" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="371" spans="1:8">
       <c r="B371" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="C371" t="n">
-        <v>4</v>
+        <v>3.333</v>
       </c>
       <c r="D371" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E371" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F371" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="G371" t="s">
         <v>14</v>
@@ -5970,52 +6027,52 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="374" spans="1:8">
       <c r="B374" t="s">
-        <v>525</v>
+        <v>473</v>
       </c>
       <c r="C374" t="n">
-        <v>3.5555</v>
+        <v>3.514</v>
       </c>
       <c r="D374" t="s">
-        <v>431</v>
+        <v>536</v>
       </c>
       <c r="E374" t="s">
-        <v>239</v>
+        <v>537</v>
       </c>
       <c r="F374" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="G374" t="s">
         <v>14</v>
       </c>
       <c r="H374" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
     </row>
     <row r="376" spans="1:8">
       <c r="A376" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="377" spans="1:8">
       <c r="B377" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="C377" t="n">
-        <v>3.462</v>
+        <v>3.625</v>
       </c>
       <c r="D377" t="s">
-        <v>527</v>
+        <v>225</v>
       </c>
       <c r="E377" t="s">
-        <v>528</v>
+        <v>93</v>
       </c>
       <c r="F377" t="s">
-        <v>439</v>
+        <v>93</v>
       </c>
       <c r="G377" t="s">
         <v>14</v>
@@ -6026,21 +6083,21 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="380" spans="1:8">
       <c r="B380" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="C380" t="n">
-        <v>3.929</v>
+        <v>3.75</v>
       </c>
       <c r="D380" t="s">
-        <v>531</v>
+        <v>225</v>
       </c>
       <c r="E380" t="s">
-        <v>228</v>
+        <v>68</v>
       </c>
       <c r="F380" t="s">
         <v>14</v>
@@ -6054,29 +6111,169 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="383" spans="1:8">
       <c r="B383" t="s">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="C383" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D383" t="s">
+        <v>86</v>
+      </c>
+      <c r="E383" t="s">
+        <v>36</v>
+      </c>
+      <c r="F383" t="s">
+        <v>14</v>
+      </c>
+      <c r="G383" t="s">
+        <v>14</v>
+      </c>
+      <c r="H383" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
+      <c r="A385" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
+      <c r="B386" t="s">
+        <v>524</v>
+      </c>
+      <c r="C386" t="n">
         <v>4</v>
       </c>
-      <c r="D383" t="s">
-        <v>74</v>
-      </c>
-      <c r="E383" t="s">
-        <v>14</v>
-      </c>
-      <c r="F383" t="s">
-        <v>14</v>
-      </c>
-      <c r="G383" t="s">
-        <v>14</v>
-      </c>
-      <c r="H383" t="s">
+      <c r="D386" t="s">
+        <v>79</v>
+      </c>
+      <c r="E386" t="s">
+        <v>14</v>
+      </c>
+      <c r="F386" t="s">
+        <v>14</v>
+      </c>
+      <c r="G386" t="s">
+        <v>14</v>
+      </c>
+      <c r="H386" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="A388" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
+      <c r="B389" t="s">
+        <v>544</v>
+      </c>
+      <c r="C389" t="n">
+        <v>3.5555</v>
+      </c>
+      <c r="D389" t="s">
+        <v>443</v>
+      </c>
+      <c r="E389" t="s">
+        <v>250</v>
+      </c>
+      <c r="F389" t="s">
+        <v>14</v>
+      </c>
+      <c r="G389" t="s">
+        <v>14</v>
+      </c>
+      <c r="H389" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
+      <c r="A391" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
+      <c r="B392" t="s">
+        <v>464</v>
+      </c>
+      <c r="C392" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="D392" t="s">
+        <v>546</v>
+      </c>
+      <c r="E392" t="s">
+        <v>547</v>
+      </c>
+      <c r="F392" t="s">
+        <v>452</v>
+      </c>
+      <c r="G392" t="s">
+        <v>14</v>
+      </c>
+      <c r="H392" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
+      <c r="A394" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8">
+      <c r="B395" t="s">
+        <v>549</v>
+      </c>
+      <c r="C395" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="D395" t="s">
+        <v>550</v>
+      </c>
+      <c r="E395" t="s">
+        <v>239</v>
+      </c>
+      <c r="F395" t="s">
+        <v>14</v>
+      </c>
+      <c r="G395" t="s">
+        <v>14</v>
+      </c>
+      <c r="H395" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8">
+      <c r="A397" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8">
+      <c r="B398" t="s">
+        <v>552</v>
+      </c>
+      <c r="C398" t="n">
+        <v>4</v>
+      </c>
+      <c r="D398" t="s">
+        <v>79</v>
+      </c>
+      <c r="E398" t="s">
+        <v>14</v>
+      </c>
+      <c r="F398" t="s">
+        <v>14</v>
+      </c>
+      <c r="G398" t="s">
+        <v>14</v>
+      </c>
+      <c r="H398" t="s">
         <v>14</v>
       </c>
     </row>
